--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA88567-6138-499A-8810-FA8B914FFB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC226129-3F01-4412-A2C2-C687E0FDB603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9690" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
     <sheet name="3.Component" sheetId="2" r:id="rId2"/>
-    <sheet name="4.State" sheetId="3" r:id="rId3"/>
-    <sheet name="5.Render" sheetId="4" r:id="rId4"/>
-    <sheet name="DOM" sheetId="5" r:id="rId5"/>
-    <sheet name="UseEffect" sheetId="6" r:id="rId6"/>
+    <sheet name="4.useState" sheetId="3" r:id="rId3"/>
+    <sheet name="5.RenderList" sheetId="4" r:id="rId4"/>
+    <sheet name="6.Style" sheetId="9" r:id="rId5"/>
+    <sheet name="10.UseEffect" sheetId="6" r:id="rId6"/>
+    <sheet name="21.Deploy" sheetId="10" r:id="rId7"/>
+    <sheet name="DOM" sheetId="5" r:id="rId8"/>
+    <sheet name="Hooks" sheetId="7" r:id="rId9"/>
+    <sheet name="Lifecycle" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="766">
   <si>
     <t>React - The Complete Guide (incl Hooks, React Router, Redux)</t>
   </si>
@@ -1384,9 +1388,6 @@
     <t xml:space="preserve">  &lt;div id="root"&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>&lt;script src="/static/js/bundle.js"&gt;&lt;/script&gt;&lt;script src="/static/js/vendors~main.chunk.js"&gt;&lt;/script&gt;&lt;/body&gt;</t>
-  </si>
-  <si>
     <t>+ Trang chỉ tải thêm dữ liệu khi cần</t>
   </si>
   <si>
@@ -2256,16 +2257,1116 @@
   </si>
   <si>
     <t>F8 Official - ReactJS 2022</t>
+  </si>
+  <si>
+    <t>// khởi tạo là thẻ 'button'</t>
+  </si>
+  <si>
+    <t>// gán lại thành thẻ 'a'</t>
+  </si>
+  <si>
+    <t>function Header() {}</t>
+  </si>
+  <si>
+    <t>class Content extends React.Component { render() {...} }</t>
+  </si>
+  <si>
+    <t>Làm việc với JSX phần III: Children props và render props</t>
+  </si>
+  <si>
+    <t>Làm việc với JSX</t>
+  </si>
+  <si>
+    <t>Tạo component linh hoạt (tùy input)</t>
+  </si>
+  <si>
+    <t>Children props và render props</t>
+  </si>
+  <si>
+    <t>Tạo dự án với React + Webpack</t>
+  </si>
+  <si>
+    <t>$ npm install webpack webpack-cli --save dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webpack: </t>
+  </si>
+  <si>
+    <t>Cấu trúc dự án:</t>
+  </si>
+  <si>
+    <t>$ npm init</t>
+  </si>
+  <si>
+    <t>npm install react@17.0.2 react-dom@17.0.2</t>
+  </si>
+  <si>
+    <t>$ npm install @babel/core babel-loader @babel/preset-env @babel/preset-react --save-dev</t>
+  </si>
+  <si>
+    <t>Tạo webpack.config.js</t>
+  </si>
+  <si>
+    <t>Cài đặt CSS-Loader và Style-Loader</t>
+  </si>
+  <si>
+    <t>$ npm install css-loader style-loader --save-dev</t>
+  </si>
+  <si>
+    <t>https://fullstack.edu.vn/blog/phan-1-tao-du-an-reactjs-voi-webpack-va-babel.html</t>
+  </si>
+  <si>
+    <t>Tạo file .babelrc</t>
+  </si>
+  <si>
+    <t>Thêm scripts cho dự án</t>
+  </si>
+  <si>
+    <t>"start": "webpack --mode development --watch",</t>
+  </si>
+  <si>
+    <t>"build": "webpack --mode production"</t>
+  </si>
+  <si>
+    <t>Webpack là công cụ giúp compile các module javascript (module bundler)</t>
+  </si>
+  <si>
+    <t>+ phần chia các module và chỉ load khi cần</t>
+  </si>
+  <si>
+    <t>+ đóng gói tất cả file nguồn thành một file duy nhất</t>
+  </si>
+  <si>
+    <t>+ nhờ loader có thể biên dịch các file khác nhau</t>
+  </si>
+  <si>
+    <t>+ biến các tài nguyên tĩnh (image, css) thành 1 module</t>
+  </si>
+  <si>
+    <t>+ chuyển đổi jsx, les, sass, scss thành js</t>
+  </si>
+  <si>
+    <t>- modules with dependencies --&gt; js, css, jpg, png</t>
+  </si>
+  <si>
+    <t>Cài đặt webpack-dev-server</t>
+  </si>
+  <si>
+    <t>$ npm install webpack-dev-server --save-dev</t>
+  </si>
+  <si>
+    <t>"start": "webpack-dev-server --mode development --open --hot",</t>
+  </si>
+  <si>
+    <t>Cài đặt html-webpack-plugin</t>
+  </si>
+  <si>
+    <t>$ npm install html-webpack-plugin --save-dev</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">=&gt; chạy $ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>npm start</t>
+    </r>
+  </si>
+  <si>
+    <t>Create React App</t>
+  </si>
+  <si>
+    <t>Maintain bởi Facebook</t>
+  </si>
+  <si>
+    <t>$ npx create-react-app clone-shopee</t>
+  </si>
+  <si>
+    <t>Tổng hợp về React Hooks</t>
+  </si>
+  <si>
+    <t>React Hooks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gắn - gắn vào đâu? --&gt; là </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>các method gắn vào Function Component</t>
+    </r>
+  </si>
+  <si>
+    <t>được thêm vào React từ phiên bản 16.0.0</t>
+  </si>
+  <si>
+    <t>sử dụng các hooks</t>
+  </si>
+  <si>
+    <t>import {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useState,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useEffect,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useLayoutEffect,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useRef,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useCallback,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useMemo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useReducer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useContext,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useImperativeHandle,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  useDebugValue,</t>
+  </si>
+  <si>
+    <t>} from 'react'</t>
+  </si>
+  <si>
+    <t>React Hooks là gì?</t>
+  </si>
+  <si>
+    <t>Hooks chỉ dùng cho Function Component</t>
+  </si>
+  <si>
+    <t>Component đơn giản và dễ hiểu hơn</t>
+  </si>
+  <si>
+    <t>- không bị chia logic ra như methods trong lifecycle của Class Component</t>
+  </si>
+  <si>
+    <t>- không cần sử dụng 'this'</t>
+  </si>
+  <si>
+    <t>Tổng hợp về React Component Lifecycle</t>
+  </si>
+  <si>
+    <t>Lifecycle của Components</t>
+  </si>
+  <si>
+    <t>Có thể điều khiển và giám sát các React component trong 3 giai đoạn chính:</t>
+  </si>
+  <si>
+    <t>Mounting</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>Unmounting</t>
+  </si>
+  <si>
+    <t>Đặt các element vào DOM.</t>
+  </si>
+  <si>
+    <t>Bốn phương thức built-in được gọi theo thứ tự sau:</t>
+  </si>
+  <si>
+    <t>1. constructor()</t>
+  </si>
+  <si>
+    <t>2. getDerivedStateFromProps()</t>
+  </si>
+  <si>
+    <t>3. render()</t>
+  </si>
+  <si>
+    <t>4. componentDidMount()</t>
+  </si>
+  <si>
+    <t>Method render() là bắt buộc và luôn được gọi. Các method còn lại là optional.</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/react/react_lifecycle.asp</t>
+  </si>
+  <si>
+    <t>Các phương thức được gọi khi có sự thay đổi của 'state' hoặc 'props'.</t>
+  </si>
+  <si>
+    <t>Năm phương thức built-in được gọi theo thứ tự sau:</t>
+  </si>
+  <si>
+    <t>1. getDerivedStateFromProps()</t>
+  </si>
+  <si>
+    <t>2. shouldComponentUpdate()</t>
+  </si>
+  <si>
+    <t>4. getSnapshotBeforeUpdate()</t>
+  </si>
+  <si>
+    <t>5. componentDidUpdate()</t>
+  </si>
+  <si>
+    <t>Phương thức được gọi trước khi remove component khỏi DOM</t>
+  </si>
+  <si>
+    <t>1. componentWillUnmount()</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <t>Bất kể lỗi ở đâu trong component, nó sẽ gọi tới phương thức này:</t>
+  </si>
+  <si>
+    <t>render()</t>
+  </si>
+  <si>
+    <t>https://reactjs.org/docs/react-component.html</t>
+  </si>
+  <si>
+    <t>Chi tiết các phương thức</t>
+  </si>
+  <si>
+    <t>Là phương thức bắt buộc duy nhất, output tới DOM.</t>
+  </si>
+  <si>
+    <t>Khi được gọi sẽ kiểm tra 'this.props' và 'this.state' và trả về một trong những kiểu sau:</t>
+  </si>
+  <si>
+    <t>+ React elements</t>
+  </si>
+  <si>
+    <t>+ Arrays và Fragments</t>
+  </si>
+  <si>
+    <t>+ Portals</t>
+  </si>
+  <si>
+    <t>+ String and number</t>
+  </si>
+  <si>
+    <t>+ Booleans || null || undefined</t>
+  </si>
+  <si>
+    <t>render nothing</t>
+  </si>
+  <si>
+    <t>rendered as text nodes in DOM</t>
+  </si>
+  <si>
+    <t>render children into a different DOM subtree</t>
+  </si>
+  <si>
+    <t>return multiple elements from render</t>
+  </si>
+  <si>
+    <t>JSX - ex. &lt;MyComponent /&gt;</t>
+  </si>
+  <si>
+    <t>Render should be pure -&gt; không chỉnh sửa component state.</t>
+  </si>
+  <si>
+    <t>Nếu cần tương tác với browser thì sử dụng 'componentDidMount' hoặc method khác.</t>
+  </si>
+  <si>
+    <t>render() sẽ không được gọi nếu 'shouldComponentUpdate()' trả về false</t>
+  </si>
+  <si>
+    <t>1. static getDerivedStateFromError()</t>
+  </si>
+  <si>
+    <t>2. componentDidCatch()</t>
+  </si>
+  <si>
+    <t>Other APIs</t>
+  </si>
+  <si>
+    <t>Mỗi component đồng thời hỗ trợ các API</t>
+  </si>
+  <si>
+    <t>+ setState()</t>
+  </si>
+  <si>
+    <t>+ forceUpdate()</t>
+  </si>
+  <si>
+    <t>Class Properties</t>
+  </si>
+  <si>
+    <t>+ defaultProps</t>
+  </si>
+  <si>
+    <t>+ displayName</t>
+  </si>
+  <si>
+    <t>Instance Properties</t>
+  </si>
+  <si>
+    <t>+ props</t>
+  </si>
+  <si>
+    <t>+ state</t>
+  </si>
+  <si>
+    <t>class App extends React.Component {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // Mounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constructor(props) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    super(props);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    this.state = {favoritecolor: "red"};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log("constructor: " + this.state.favoritecolor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // NOTE: this function will be invoked when state change,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // and it sets the favorite color due to the props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // static getDerivedStateFromProps(props, state) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //   console.log("getDerivedStateFromProps: " + props.favcol);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //   return {favoritecolor: props.favcol};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  render() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;div id="wrapper"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;h1 id="h1"&gt;My favorite color is {this.state.favoritecolor}&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  componentDidMount() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setTimeout(() =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      this.setState({favoritecolor: "green"});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      console.log("componentDidMount: change to green");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }, 2000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  shouldComponentUpdate() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  componentDidUpdate() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    document.getElementById("h1").innerText = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The updated favorite color is " + this.state.favoritecolor;</t>
+  </si>
+  <si>
+    <t>// index.js</t>
+  </si>
+  <si>
+    <t>const rootContainer = ReactDOM.createRoot(document.getElementById('root'));</t>
+  </si>
+  <si>
+    <t>rootContainer.render(&lt;App favcol="yellow"/&gt;);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  // hence the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setState() in componentDidMount()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will not be implemented.</t>
+    </r>
+  </si>
+  <si>
+    <t>Output Dynamic Lists of Content</t>
+  </si>
+  <si>
+    <t>Render Content Under certain conditions</t>
+  </si>
+  <si>
+    <t>Render lists</t>
+  </si>
+  <si>
+    <t>Return a list of JSX items</t>
+  </si>
+  <si>
+    <t>/components/expenses/AllExpenses.js</t>
+  </si>
+  <si>
+    <t>{props.expenses.map((expense) =&gt; (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ExpenseItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title={expense.title}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    amount={expense.amount}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    date={expense.date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /&gt;</t>
+  </si>
+  <si>
+    <t>))}</t>
+  </si>
+  <si>
+    <t>Understand prop "key"</t>
+  </si>
+  <si>
+    <t>When adding a new item, React add to the last item of list.</t>
+  </si>
+  <si>
+    <t>-&gt; add prop "key"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    key={expense.id}</t>
+  </si>
+  <si>
+    <t>and update all other items</t>
+  </si>
+  <si>
+    <t>Output Conditional Content</t>
+  </si>
+  <si>
+    <t>Ví dụ, khi filter expenses item lists theo năm, sẽ có trường hợp list trả về rỗng.</t>
+  </si>
+  <si>
+    <t>Add Conditional Return Statements</t>
+  </si>
+  <si>
+    <t>Add a Chart</t>
+  </si>
+  <si>
+    <t>-&gt; It is required for React to correctly identify and update the list elements.</t>
+  </si>
+  <si>
+    <t>Trong React component, ta có thể dựa vào các expressions để trả về kết quả khác nhau.</t>
+  </si>
+  <si>
+    <t>Add bar chart</t>
+  </si>
+  <si>
+    <t>+ khi rỗng thì trả về &lt;p&gt;Found no expenses.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>+ khi không rỗng thì trả về &lt;ExpenseItem … /&gt;</t>
+  </si>
+  <si>
+    <t>Tạo một Component ExpenseList mới thực hiện các điều kiện như trên.</t>
+  </si>
+  <si>
+    <t>const ExpensesList = props =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (props.expenses.length === 0) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return &lt;h2 className="expenses-list__fallback"&gt;No expenses found.&lt;/h2&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;ul className="expenses-list"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;ExpenseItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          key={expense.id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          title={expense.title}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          amount={expense.amount}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date={expense.date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ))}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>./components/expenses/ExpensesList.js</t>
+  </si>
+  <si>
+    <t>// T/h input là list rỗng</t>
+  </si>
+  <si>
+    <t>// T/h input là list có item</t>
+  </si>
+  <si>
+    <t>// Lọc expenses list ban đầu bởi selected Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return expense.date.getFullYear().toString() === filteredYear;</t>
+  </si>
+  <si>
+    <t>./components/expenses/AllExpenses.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  let filteredExpenses = props.expenses.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((expense) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      {props.expenses.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((expense) =&gt; (</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng các javascript array method: map, filter</t>
+  </si>
+  <si>
+    <t>npx create-react-app</t>
+  </si>
+  <si>
+    <t>React dev tool</t>
+  </si>
+  <si>
+    <t>Redux dev tool</t>
+  </si>
+  <si>
+    <t>React State - useState</t>
+  </si>
+  <si>
+    <t>Styling Components -&gt; make our apps look good</t>
+  </si>
+  <si>
+    <t>Conditional &amp; Dynamic Styles</t>
+  </si>
+  <si>
+    <t>Styled Components</t>
+  </si>
+  <si>
+    <t>CSS Modules</t>
+  </si>
+  <si>
+    <t>Props trong JSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;MyComponent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  propName1="String literals"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  propName2={expression}</t>
+  </si>
+  <si>
+    <t>/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; viết vào câu if/else, switch/case sẽ bị lỗi </t>
+  </si>
+  <si>
+    <t>NOTE: expression = các toán tử 3 ngôi, +-*/</t>
+  </si>
+  <si>
+    <t>Spread/Rest props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;label&gt;{label}&lt;/label&gt;</t>
+  </si>
+  <si>
+    <t>)}</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function Input({label, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…inputProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      &lt;input {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…inputProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function Input({label, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type, placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      &lt;input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type={type} placeholder={placeholder}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>-&gt; Giúp truyền nhiều prop cùng lúc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Props default to true:  </t>
+  </si>
+  <si>
+    <t>-&gt; khi không truyền giá trị thì thì props mặc định là true</t>
+  </si>
+  <si>
+    <t>Children prop</t>
+  </si>
+  <si>
+    <t>&lt;MyComponent&gt;String literals&lt;/MyComponent&gt;</t>
+  </si>
+  <si>
+    <t>&lt;MyComponent&gt;{expression}&lt;/MyComponent&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t>function MyComponent({</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>children</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}) { … }</t>
+    </r>
+  </si>
+  <si>
+    <t>Render props</t>
+  </si>
+  <si>
+    <t>Truyền một function qua props -&gt; thường dùng children prop</t>
+  </si>
+  <si>
+    <t>function List({ data, children}) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const cars = ['Audi', 'BMW'];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      {data.map((item, index) =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>children(item, index)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;List data={cars}&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/List&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {(item, index) =&gt; &lt;li key={index} &gt;{item}&lt;/li&gt;}</t>
+  </si>
+  <si>
+    <t>// truyền vào children prop là một function trả về React element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;script src="/static/js/bundle.js"&gt;&lt;/script&gt;&lt;script src="/static/js/vendors~main.chunk.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>21.Deploy</t>
+  </si>
+  <si>
+    <t>From Development to Production</t>
+  </si>
+  <si>
+    <t>Deployment Steps &amp; Pitfalls</t>
+  </si>
+  <si>
+    <t>Server-side routing vs Client-side routing</t>
+  </si>
+  <si>
+    <t>Deployment Steps</t>
+  </si>
+  <si>
+    <t>Test Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimize Code </t>
+  </si>
+  <si>
+    <t>Build App for Production</t>
+  </si>
+  <si>
+    <t>Upload Production Code to Server</t>
+  </si>
+  <si>
+    <t>Configure Server</t>
+  </si>
+  <si>
+    <t>(Lazy loading)</t>
+  </si>
+  <si>
+    <t>Add Lazy Loading</t>
+  </si>
+  <si>
+    <t>Load code only when it's needed</t>
+  </si>
+  <si>
+    <t>How to use:</t>
+  </si>
+  <si>
+    <t>1 - Original</t>
+  </si>
+  <si>
+    <t>import NewQuote from './pages/NewQuote';</t>
+  </si>
+  <si>
+    <t>2 - Change</t>
+  </si>
+  <si>
+    <t>const NewQuote = React.lazy(() =&gt; import('./pages/NewQuote'));</t>
+  </si>
+  <si>
+    <t>Note: Sometimes it takes time to download the code -&gt; add a fallback UI</t>
+  </si>
+  <si>
+    <t>import React, {Suspense} from 'react';</t>
+  </si>
+  <si>
+    <t>import LoadingSpinner from './components/ui/LoadingSpinner';</t>
+  </si>
+  <si>
+    <t>&lt;/Suspense&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Suspense fallback=(&lt;div className="centered"&gt;&lt;LoadingSpinner /&gt;&lt;/div&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>in package.json</t>
+  </si>
+  <si>
+    <t>start: react-scripts start</t>
+  </si>
+  <si>
+    <t>build: react-scripts build</t>
+  </si>
+  <si>
+    <t>-&gt; $ npm run build</t>
+  </si>
+  <si>
+    <t>-&gt; build folder</t>
+  </si>
+  <si>
+    <t>A React SPA is a "Static Website"</t>
+  </si>
+  <si>
+    <t>Only HTML, CSS &amp; JavaScript</t>
+  </si>
+  <si>
+    <t>-&gt; A Static Site Host is needed</t>
+  </si>
+  <si>
+    <t>Ex. AWS S3, Firebase</t>
+  </si>
+  <si>
+    <t>Configure as a single-page app (rewrite all urls to /index.html)? (y/N)</t>
+  </si>
+  <si>
+    <t>Configure server: Server-side routing vs Client-side routing</t>
+  </si>
+  <si>
+    <t>Server-side routing</t>
+  </si>
+  <si>
+    <t>Client-side routing</t>
+  </si>
+  <si>
+    <t>+ only request the data needed</t>
+  </si>
+  <si>
+    <t>+ optimized for SEO</t>
+  </si>
+  <si>
+    <t>- every request result a full-page</t>
+  </si>
+  <si>
+    <t>- take a while for page rendering</t>
+  </si>
+  <si>
+    <t>+ routing between views faster</t>
+  </si>
+  <si>
+    <t>+ smooth transitions and animations</t>
+  </si>
+  <si>
+    <t>- the first loading takes longer</t>
+  </si>
+  <si>
+    <t>- it is possible missing views</t>
+  </si>
+  <si>
+    <t>- SEO is less optimized</t>
+  </si>
+  <si>
+    <t>- require more setup work and library</t>
+  </si>
+  <si>
+    <t>3.Component</t>
+  </si>
+  <si>
+    <t>4.useState</t>
+  </si>
+  <si>
+    <t>5.RenderList</t>
+  </si>
+  <si>
+    <t>6.Style</t>
+  </si>
+  <si>
+    <t>10.UseEffect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d;@"/>
-  </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2419,6 +3520,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2447,7 +3556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2461,7 +3570,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2476,6 +3584,16 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2647,13 +3765,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>177822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2691,13 +3809,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>44062</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>47286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2740,13 +3858,111 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>186982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF6C2DE-EFD4-4171-B09C-BAA8EE03773F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261412" y="7866529"/>
+          <a:ext cx="3933265" cy="2853982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260126</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>94786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D4B3E7-A373-480A-8277-F68A575037B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6656294" y="5916706"/>
+          <a:ext cx="3285714" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>459415</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2784,13 +4000,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>163355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2824,30 +4040,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>186982</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>273345</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF6C2DE-EFD4-4171-B09C-BAA8EE03773F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64C2E04-9F93-4018-AA3D-4026E232C90D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,19 +4067,85 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7261412" y="7866529"/>
-          <a:ext cx="3933265" cy="2853982"/>
+          <a:off x="7261412" y="38906824"/>
+          <a:ext cx="5114286" cy="1828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88B3510-4A1B-47AD-950C-9D4EA6B2BF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6656294" y="2286000"/>
+          <a:ext cx="6355976" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3139,10 +4416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R35"/>
+  <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3178,7 +4455,10 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="13">
+      <c r="J8" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="K8" s="31">
         <v>44906</v>
       </c>
     </row>
@@ -3189,7 +4469,10 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="13">
+      <c r="J9" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="K9" s="31">
         <v>44914</v>
       </c>
     </row>
@@ -3200,6 +4483,12 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="J10" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="K10" s="31">
+        <v>44928</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -3208,6 +4497,9 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="J11" s="32" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -3216,6 +4508,9 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
+      <c r="K12" s="31">
+        <v>44929</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -3232,183 +4527,201 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
+      <c r="J14" s="32" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>715</v>
+      </c>
+      <c r="K24" s="31">
+        <v>44930</v>
       </c>
       <c r="M24" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="R26" t="s">
-        <v>474</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="R27" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R28" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="M30" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>476</v>
-      </c>
-      <c r="K34" s="25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>475</v>
+      </c>
+      <c r="K35" s="24">
         <v>44924</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K35" s="25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="K36" s="24">
         <v>44564</v>
       </c>
     </row>
@@ -3416,14 +4729,496 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CAC955B5-BA63-49AE-8455-DCB0484BB07B}"/>
-    <hyperlink ref="M20" r:id="rId2" xr:uid="{67E7922B-6A2B-4AEB-9D38-04EF21365958}"/>
-    <hyperlink ref="M26" r:id="rId3" xr:uid="{AA4F42E1-CA21-4C81-AF61-E929D299C8BC}"/>
-    <hyperlink ref="M27" r:id="rId4" location="installation" xr:uid="{4C33BC18-1571-47C0-BCC4-2DB536B9BC45}"/>
-    <hyperlink ref="B35" r:id="rId5" xr:uid="{53C62C83-76F9-4302-8049-1D9F2F43DDF9}"/>
+    <hyperlink ref="M21" r:id="rId2" xr:uid="{67E7922B-6A2B-4AEB-9D38-04EF21365958}"/>
+    <hyperlink ref="M27" r:id="rId3" xr:uid="{AA4F42E1-CA21-4C81-AF61-E929D299C8BC}"/>
+    <hyperlink ref="M28" r:id="rId4" location="installation" xr:uid="{4C33BC18-1571-47C0-BCC4-2DB536B9BC45}"/>
+    <hyperlink ref="B36" r:id="rId5" xr:uid="{53C62C83-76F9-4302-8049-1D9F2F43DDF9}"/>
+    <hyperlink ref="J8" location="'3.Component'!A1" display="3.Component" xr:uid="{9F9F9AE5-459C-4DA1-BCBE-AFC3896C5272}"/>
+    <hyperlink ref="J9" location="'4.useState'!A1" display="4.useState" xr:uid="{A379BE02-A27A-4D88-9249-8432494B7DDC}"/>
+    <hyperlink ref="J10" location="'5.RenderList'!A1" display="5.RenderList" xr:uid="{C4A1AE85-944E-463F-A842-68F12863221E}"/>
+    <hyperlink ref="J11" location="'6.Style'!A1" display="6.Style" xr:uid="{07D61642-9F57-491A-94DE-B2E82B426AE2}"/>
+    <hyperlink ref="J14" location="'10.UseEffect'!A1" display="10.UseEffect" xr:uid="{89550841-E73A-4F06-9FD2-81617C48C729}"/>
+    <hyperlink ref="J24" location="'21.Deploy'!A1" display="21.Deploy" xr:uid="{A1608A3A-4F55-4EEF-96B9-E79B3A050F13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818115DD-5FA9-495E-93E6-8A4516AFECDE}">
+  <dimension ref="B1:M83"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="27" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>557</v>
+      </c>
+      <c r="M41" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="M45" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>560</v>
+      </c>
+      <c r="M46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="M48" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D49" s="6"/>
+      <c r="M49" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="M50" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>582</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="M51" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="M52" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D53" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="M53" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="M54" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D55" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D56" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="M57" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D58" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="M58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="M59" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="M61" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="M62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>565</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D65" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="H65" t="s">
+        <v>575</v>
+      </c>
+      <c r="M65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="H66" t="s">
+        <v>574</v>
+      </c>
+      <c r="M66" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="H67" t="s">
+        <v>573</v>
+      </c>
+      <c r="M67" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="H68" t="s">
+        <v>572</v>
+      </c>
+      <c r="M68" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="H69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>576</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>577</v>
+      </c>
+      <c r="M72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>578</v>
+      </c>
+      <c r="M73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M75" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>620</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{13CF48F6-8F18-4C33-A0F2-14FC2CCEE4A1}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{59F30FC5-F0FA-42D0-880A-9168D89701DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3432,7 +5227,7 @@
   <dimension ref="B1:H70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3450,8 +5245,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3461,7 +5256,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3486,7 +5281,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3790,742 +5585,751 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC4A4B2-6F7D-44F8-8C98-A7DE08C537DE}">
-  <dimension ref="B1:R150"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>714</v>
+      </c>
       <c r="B1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="16" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="D13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+      <c r="D14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="D14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="6"/>
-      <c r="E32" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
-      <c r="E33" t="s">
-        <v>139</v>
+      <c r="E33" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" t="s">
-        <v>140</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
-      <c r="E43" s="9" t="s">
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D44" s="6"/>
+      <c r="E44" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D44" s="6" t="s">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C47" s="18" t="s">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C48" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L47" s="18" t="s">
+      <c r="L48" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="R47" s="18" t="s">
+      <c r="R48" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D48" s="6" t="s">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>152</v>
-      </c>
-      <c r="L49" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
+        <v>153</v>
+      </c>
+      <c r="L51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
         <v>154</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L52" t="s">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>156</v>
-      </c>
-      <c r="L53" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>158</v>
+        <v>156</v>
+      </c>
+      <c r="L54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>155</v>
-      </c>
-      <c r="L55" t="s">
-        <v>156</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
+        <v>155</v>
+      </c>
+      <c r="L56" t="s">
+        <v>156</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>157</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L57" t="s">
         <v>165</v>
       </c>
-      <c r="R56" t="s">
+      <c r="R57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L57" s="17" t="s">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L58" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="R57" t="s">
+      <c r="R58" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L58" t="s">
-        <v>167</v>
-      </c>
-      <c r="R58" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="R59" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="8" t="s">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H66" s="20" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>179</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="8" t="s">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>192</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D79" s="5" t="s">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="5" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>201</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>211</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C104" s="4" t="s">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C105" s="4" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D107" s="6" t="s">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D108" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E109" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C120" s="4" t="s">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E122" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E126" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="134" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E134" s="9" t="s">
+    <row r="135" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E135" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="M134" s="6" t="s">
+      <c r="M135" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="135" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
+    <row r="136" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="137" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
+    <row r="138" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="139" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="140" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E140" s="9" t="s">
+    <row r="141" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E141" s="9" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="141" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="142" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="146" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E146" s="9" t="s">
+    <row r="147" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="E147" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="O146" s="6" t="s">
+      <c r="O147" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C148" s="4" t="s">
+    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C149" s="4" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="149" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="150" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="151" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{3EAECBB1-229D-42C3-8683-5E6FE3E66286}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4534,33 +6338,959 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E31186-5C3D-4EAA-8345-0EFC8AB7596B}">
-  <dimension ref="B4:D4"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="30" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
+      <c r="D35" t="s">
+        <v>667</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="6"/>
+      <c r="D36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="6"/>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>650</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{59A9590F-30EC-4E4C-943E-915F1924B5ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D997D810-4D24-43CC-A4E7-C061D78D7F79}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{3AC78A15-7884-4084-A262-038F48FD1226}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C4356-0BFA-4DD7-9955-C0CBD8458AA6}">
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>416</v>
+      </c>
+      <c r="J60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>424</v>
+      </c>
+      <c r="J61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+      <c r="J62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+      <c r="J63" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>425</v>
+      </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>421</v>
+      </c>
+      <c r="J65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+      <c r="J66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>416</v>
+      </c>
+      <c r="J70" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>424</v>
+      </c>
+      <c r="J71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>419</v>
+      </c>
+      <c r="J72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>426</v>
+      </c>
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{D5A17036-6293-4CE6-A6E7-14AAAF482A4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F33E95-6BA3-4923-8488-FAE427356E73}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="34" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="27" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{312DE51E-2826-4299-8D12-FF51C6E193B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AAE5-8895-4972-BA44-ABCE854AC42B}">
-  <dimension ref="B2:S191"/>
+  <dimension ref="B2:S271"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L185" sqref="L185:M185"/>
+    <sheetView topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4583,7 +7313,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
         <v>259</v>
@@ -4591,1252 +7321,1492 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H18" s="6" t="s">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="6" t="s">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="6" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>283</v>
+      <c r="D39" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
-        <v>308</v>
+      <c r="D40" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>284</v>
+      <c r="C44" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D71" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="O71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D72" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="O72" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D65" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="O65" t="s">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C75" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>294</v>
+      </c>
+      <c r="I76" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>297</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H80" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>326</v>
+      </c>
+      <c r="H81" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>298</v>
+      </c>
+      <c r="H82" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>299</v>
+      </c>
+      <c r="H83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>300</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D92" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D66" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="O66" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>294</v>
-      </c>
-      <c r="I69" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>295</v>
-      </c>
-      <c r="I70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>301</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>286</v>
-      </c>
-      <c r="D73" s="23"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>298</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H74" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>327</v>
-      </c>
-      <c r="H75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>323</v>
+      </c>
+      <c r="K96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>314</v>
+      </c>
+      <c r="K97" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
         <v>299</v>
       </c>
-      <c r="H76" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>300</v>
-      </c>
-      <c r="H77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H78" t="s">
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>339</v>
+      </c>
+      <c r="I114" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>340</v>
+      </c>
+      <c r="I115" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>341</v>
+      </c>
+      <c r="I116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>342</v>
+      </c>
+      <c r="I117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>343</v>
+      </c>
+      <c r="I118" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H79" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>301</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="K85" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D86" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>324</v>
-      </c>
-      <c r="K90" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>315</v>
-      </c>
-      <c r="K91" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K92" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E103" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>340</v>
-      </c>
-      <c r="I108" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>341</v>
-      </c>
-      <c r="I109" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>342</v>
-      </c>
-      <c r="I110" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>343</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="I119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D127" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D128" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D132" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D133" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J133" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D134" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J134" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D135" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D139" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="J139" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>369</v>
+      </c>
+      <c r="J140" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>368</v>
+      </c>
+      <c r="J141" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>370</v>
+      </c>
+      <c r="J142" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="21"/>
+      <c r="M147" s="21"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>344</v>
-      </c>
-      <c r="I112" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>307</v>
-      </c>
-      <c r="I113" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D121" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D122" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D126" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D127" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D128" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D129" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D133" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="J133" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>370</v>
-      </c>
-      <c r="J134" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>369</v>
-      </c>
-      <c r="J135" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>371</v>
-      </c>
-      <c r="J136" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C138" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="s">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D151" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D162" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="163" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>127</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>77</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
-        <v>448</v>
-      </c>
-      <c r="H165" t="s">
-        <v>449</v>
+      <c r="D165" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>418</v>
-      </c>
-      <c r="I166" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>206</v>
-      </c>
-      <c r="I167" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>433</v>
-      </c>
-      <c r="I168" t="s">
-        <v>101</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D169" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="I169" t="s">
-        <v>452</v>
+      <c r="D169" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D170" s="8" t="s">
+      <c r="D170" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
         <v>447</v>
       </c>
-      <c r="I170" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="K170" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D171" t="s">
-        <v>208</v>
-      </c>
-      <c r="I171" t="s">
-        <v>105</v>
+      <c r="H171" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="I172" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>432</v>
+      </c>
+      <c r="I174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D175" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I175" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D176" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="K176" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="177" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>208</v>
+      </c>
+      <c r="I177" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="178" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>435</v>
+      </c>
+      <c r="I178" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="179" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
+    <row r="180" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>456</v>
+      </c>
+      <c r="J180" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="181" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D181" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="J181" t="s">
+        <v>465</v>
+      </c>
+      <c r="N181" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D182" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J182" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>460</v>
+      </c>
+      <c r="N184" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="186" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="187" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D175" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="J175" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D176" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="J176" t="s">
+    <row r="188" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J177" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="178" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J178" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="179" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J179" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="180" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J180" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="181" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J181" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="182" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J182" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J183" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="184" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J184" t="s">
+    <row r="192" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>471</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D201" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D202" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D203" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D204" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C205" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D206" s="20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D208" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="209" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D210" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="211" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>692</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="J211" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="212" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="185" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J185" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J186" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="187" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="J187" t="s">
+      <c r="J212" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>686</v>
+      </c>
+      <c r="J213" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>687</v>
+      </c>
+      <c r="J214" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="215" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>693</v>
+      </c>
+      <c r="J215" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="216" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>208</v>
+      </c>
+      <c r="J216" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>688</v>
+      </c>
+      <c r="J217" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="220" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="221" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="222" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D222" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="223" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>704</v>
+      </c>
+      <c r="K227" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>206</v>
+      </c>
+      <c r="K228" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>705</v>
+      </c>
+      <c r="K229" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>707</v>
+      </c>
+      <c r="K230" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>660</v>
+      </c>
+      <c r="K231" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>435</v>
+      </c>
+      <c r="K232" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="188" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="189" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="190" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D190" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="191" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D191" t="s">
-        <v>472</v>
-      </c>
-      <c r="J191" s="6" t="s">
-        <v>473</v>
+      <c r="K233" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D234" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="K234" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K235" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K236" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B239" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="21"/>
+      <c r="K239" s="21"/>
+      <c r="L239" s="21"/>
+      <c r="M239" s="21"/>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>499</v>
+      </c>
+      <c r="M240" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D241" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D242" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D243" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D245" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D246" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C248" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C266" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="268" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B268" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="21"/>
+      <c r="K268" s="21"/>
+      <c r="L268" s="21"/>
+      <c r="M268" s="21"/>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D270" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D271" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{706CE82B-CC5C-4EBF-9D8D-92B3F2A7FB46}"/>
-    <hyperlink ref="C64" r:id="rId2" xr:uid="{6838DAA7-7243-4F1D-83A4-693D5FEC6905}"/>
-    <hyperlink ref="C97" r:id="rId3" location="installation" xr:uid="{D9CA9AED-041E-4A53-A4C4-2886855AFAD2}"/>
+    <hyperlink ref="C70" r:id="rId2" xr:uid="{6838DAA7-7243-4F1D-83A4-693D5FEC6905}"/>
+    <hyperlink ref="C103" r:id="rId3" location="installation" xr:uid="{D9CA9AED-041E-4A53-A4C4-2886855AFAD2}"/>
+    <hyperlink ref="C248" r:id="rId4" xr:uid="{FAE8CC44-F695-42A0-98BD-6C4301783826}"/>
+    <hyperlink ref="D270" r:id="rId5" xr:uid="{2889E41A-157D-4C82-8857-BD7765DC04EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C4356-0BFA-4DD7-9955-C0CBD8458AA6}">
-  <dimension ref="B1:J77"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D9D265-7661-41E2-8F58-51E51B362C39}">
+  <dimension ref="B1:D30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>377</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>379</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>384</v>
+      <c r="D15" s="9" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="24" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>417</v>
-      </c>
-      <c r="J60" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>425</v>
-      </c>
-      <c r="J61" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>420</v>
-      </c>
-      <c r="J62" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>127</v>
-      </c>
-      <c r="J63" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>426</v>
-      </c>
-      <c r="J64" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>422</v>
-      </c>
-      <c r="J65" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>127</v>
-      </c>
-      <c r="J66" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>417</v>
-      </c>
-      <c r="J70" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>425</v>
-      </c>
-      <c r="J71" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>420</v>
-      </c>
-      <c r="J72" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>127</v>
-      </c>
-      <c r="J73" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>427</v>
-      </c>
-      <c r="J74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>77</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC226129-3F01-4412-A2C2-C687E0FDB603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BEC242-D7CC-4A87-A3BC-3EE3116F2BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="4.useState" sheetId="3" r:id="rId3"/>
     <sheet name="5.RenderList" sheetId="4" r:id="rId4"/>
     <sheet name="6.Style" sheetId="9" r:id="rId5"/>
-    <sheet name="10.UseEffect" sheetId="6" r:id="rId6"/>
-    <sheet name="21.Deploy" sheetId="10" r:id="rId7"/>
-    <sheet name="DOM" sheetId="5" r:id="rId8"/>
-    <sheet name="Hooks" sheetId="7" r:id="rId9"/>
-    <sheet name="Lifecycle" sheetId="8" r:id="rId10"/>
+    <sheet name="9.Fragment" sheetId="11" r:id="rId6"/>
+    <sheet name="10.UseEffect" sheetId="6" r:id="rId7"/>
+    <sheet name="21.Deploy" sheetId="10" r:id="rId8"/>
+    <sheet name="DOM" sheetId="5" r:id="rId9"/>
+    <sheet name="Hooks" sheetId="7" r:id="rId10"/>
+    <sheet name="Lifecycle" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="860">
   <si>
     <t>React - The Complete Guide (incl Hooks, React Router, Redux)</t>
   </si>
@@ -117,9 +118,6 @@
     <t>Debugging React Apps</t>
   </si>
   <si>
-    <t>Diving Deeper: Workign with Fragments, Portals &amp; Refs</t>
-  </si>
-  <si>
     <t>Advanced: Handling Side Effects, Using Reducer, and Using the Context API</t>
   </si>
   <si>
@@ -2785,18 +2783,12 @@
     <t>Understand prop "key"</t>
   </si>
   <si>
-    <t>When adding a new item, React add to the last item of list.</t>
-  </si>
-  <si>
     <t>-&gt; add prop "key"</t>
   </si>
   <si>
     <t xml:space="preserve">    key={expense.id}</t>
   </si>
   <si>
-    <t>and update all other items</t>
-  </si>
-  <si>
     <t>Output Conditional Content</t>
   </si>
   <si>
@@ -3112,12 +3104,6 @@
     <t>Children prop</t>
   </si>
   <si>
-    <t>&lt;MyComponent&gt;String literals&lt;/MyComponent&gt;</t>
-  </si>
-  <si>
-    <t>&lt;MyComponent&gt;{expression}&lt;/MyComponent&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">-&gt; </t>
   </si>
   <si>
@@ -3360,13 +3346,654 @@
   </si>
   <si>
     <t>10.UseEffect</t>
+  </si>
+  <si>
+    <t>When adding a new item, React add to the last item of list --&gt; then update all other items</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;MyComponent&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String literals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/MyComponent&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;MyComponent&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{expression}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/MyComponent&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Dùng useState và inline-style.</t>
+  </si>
+  <si>
+    <t>Ví dụ: state khi input nhập vào là rỗng</t>
+  </si>
+  <si>
+    <t>const [isValid, setIsValid] = useState(true);</t>
+  </si>
+  <si>
+    <t>Khởi tạo state</t>
+  </si>
+  <si>
+    <t>Set/Reset state</t>
+  </si>
+  <si>
+    <t>if (enteredValue.trim().length === 0) setIsValid(false);</t>
+  </si>
+  <si>
+    <t>if (enteredValue.trim().length &gt; 0) setIsValid(true);</t>
+  </si>
+  <si>
+    <t>Sử dụng inline-style</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;label </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>style={ {color: !isValid ? 'red' : 'black' }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Course Goal&lt;/label&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhược điểm: inline-style có quyền cao (hơn #id, .class) nên không linh hoạt</t>
+  </si>
+  <si>
+    <t>Set dynamic Inline-styles</t>
+  </si>
+  <si>
+    <t>Set CSS classes dynamically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ: </t>
+  </si>
+  <si>
+    <t>Thay đổi class của element dựa theo State -&gt; CSS classes</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div className={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`form-control ${!isValid ? 'invalid' : ''}`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://styled-components.com/docs/basics</t>
+  </si>
+  <si>
+    <t>Intro Styled Components</t>
+  </si>
+  <si>
+    <t>Truyền trực tiếp CSS vào component thông qua API của styled-components.</t>
+  </si>
+  <si>
+    <t>Styled Components with Dynamic props</t>
+  </si>
+  <si>
+    <t>Styled Components with Media queries</t>
+  </si>
+  <si>
+    <t>Using CSS Modules</t>
+  </si>
+  <si>
+    <t>Đã built-In sẵn khi tạo project với create-react-app</t>
+  </si>
+  <si>
+    <t>How to use it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Thay đổi tên file css theo quy ước: </t>
+  </si>
+  <si>
+    <t>2 - import</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from './Button.module.css';</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Sử dụng như một class </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;button className={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>styles.button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}&gt;&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div className={`${</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>styles['form-control']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">} ${!isValid &amp;&amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>styles.invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}`}&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ex. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Button.module.css</t>
+    </r>
+  </si>
+  <si>
+    <t>Section 8</t>
+  </si>
+  <si>
+    <t>Practice 1: Add User App</t>
+  </si>
+  <si>
+    <t>Section 11</t>
+  </si>
+  <si>
+    <t>Practice 2: Food Order App</t>
+  </si>
+  <si>
+    <t>Diving Deeper: Working with Fragments, Portals &amp; Refs</t>
+  </si>
+  <si>
+    <t>9.Fragment</t>
+  </si>
+  <si>
+    <t>Working with Fragments, Portals &amp; Refs</t>
+  </si>
+  <si>
+    <t>Getting a Cleaner DOM with Portals</t>
+  </si>
+  <si>
+    <t>JSX Limitations &amp; Fragments</t>
+  </si>
+  <si>
+    <t>JSX Limitations</t>
+  </si>
+  <si>
+    <t>Can't return more than one "root" JSX element.</t>
+  </si>
+  <si>
+    <t>Can't store more than one "root" JSX element in a variable.</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;…&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>=&gt; too many &lt;div&gt;</t>
+  </si>
+  <si>
+    <t>end up with tons of unnecessary &lt;div&gt;s which add no semantic meaning or structure to the page</t>
+  </si>
+  <si>
+    <t>Instead of using &lt;div&gt;, create a component called Wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return props.children;</t>
+  </si>
+  <si>
+    <t>export default Wrapper;</t>
+  </si>
+  <si>
+    <t>Solution 2: Create a Wrapper component</t>
+  </si>
+  <si>
+    <t>Solution 1: Always wrap adjacent elements</t>
+  </si>
+  <si>
+    <t>Solution 3: Use React.Fragment (&lt;&gt;)</t>
+  </si>
+  <si>
+    <t>It fulfills React's JSX requirement</t>
+  </si>
+  <si>
+    <t>It is an empty wrapper component that doesn't render any real HTML element to the DOM.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = props =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;React.Fragment&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h1&gt;Hi&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;h2&gt;Nice to meet you&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/React.Fragment&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Wrapper&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/Wrapper&gt;</t>
+  </si>
+  <si>
+    <t>Understand React Portals</t>
+  </si>
+  <si>
+    <t>It is like styling a &lt;div&gt; like a &lt;button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div onClick={onClickHandler&gt;Click me&lt;/div&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nested modal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isn't ideal from a "clean HTML structure" perspective.</t>
+    </r>
+  </si>
+  <si>
+    <t>React Portals is built-in React-DOM function that helps to prevent nested modal.</t>
+  </si>
+  <si>
+    <t>&lt;div id="backdrop-root"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div id="overlay-root"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div id="root"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>For example, in index.html</t>
+  </si>
+  <si>
+    <t>in ErrorModal.js</t>
+  </si>
+  <si>
+    <t>import ReactDOM from 'react-dom';</t>
+  </si>
+  <si>
+    <t>const Backdrop = (props) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return &lt;div className={classes.backdrop} onClick={props.onConfirm} /&gt;;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>const ErrorModal = (props) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;React.Fragment&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;Backdrop onConfirm={props.onConfirm} /&gt;,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        document.getElementById('backdrop-root')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      )}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/React.Fragment&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReactDOM.createPortal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Syntax: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReactDOM.createPortal(ReactNode, Element) </t>
+  </si>
+  <si>
+    <t>Result: No nested modal</t>
+  </si>
+  <si>
+    <t>useRef()</t>
+  </si>
+  <si>
+    <t>Working with Refs - React hook useRef()</t>
+  </si>
+  <si>
+    <t>const nameInputRef = useRef();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;input id="username" type="text" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref={nameInputRef}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Now nameInputRef is an object which got a property named 'current' that points to a DOM element object.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const enteredName = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nameInputRef.current.value;</t>
+    </r>
+  </si>
+  <si>
+    <t>Controlled and Uncontrolled Components</t>
+  </si>
+  <si>
+    <t>doesn't reflex the value to the &lt;input&gt;</t>
+  </si>
+  <si>
+    <t>the value or state of &lt;input&gt; is not controlled by React.</t>
+  </si>
+  <si>
+    <t>When useRef(), &lt;input&gt; becomes an uncontrolled component.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">allow us to get </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>access to another DOM element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s and work with them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useRef</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} from 'react';</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3452,15 +4079,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3500,13 +4118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0000CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF6A9955"/>
       <name val="Consolas"/>
@@ -3524,6 +4135,38 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3556,7 +4199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3572,28 +4215,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3858,6 +4502,55 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>326082</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456EEB9-3627-492B-B188-2F1DE2DCDE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261412" y="8034618"/>
+          <a:ext cx="4561905" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -3901,7 +4594,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3950,7 +4643,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4087,7 +4780,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4416,10 +5109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R36"/>
+  <dimension ref="B2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,10 +5148,10 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>761</v>
-      </c>
-      <c r="K8" s="31">
+      <c r="J8" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="K8" s="29">
         <v>44906</v>
       </c>
     </row>
@@ -4469,10 +5162,10 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>762</v>
-      </c>
-      <c r="K9" s="31">
+      <c r="J9" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="K9" s="29">
         <v>44914</v>
       </c>
     </row>
@@ -4483,10 +5176,10 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>763</v>
-      </c>
-      <c r="K10" s="31">
+      <c r="J10" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="K10" s="29">
         <v>44928</v>
       </c>
     </row>
@@ -4497,8 +5190,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="32" t="s">
-        <v>764</v>
+      <c r="J11" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="K11" s="29">
+        <v>44938</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4508,128 +5204,126 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="29">
         <v>44929</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>794</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>795</v>
+      </c>
+      <c r="K13" s="29">
+        <v>44940</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>798</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="K14" s="29">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="32"/>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>796</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="K24" s="31">
-        <v>44930</v>
+        <v>31</v>
       </c>
       <c r="M24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
         <v>65</v>
@@ -4637,91 +5331,119 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="K26" s="29">
+        <v>44930</v>
+      </c>
+      <c r="M26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="R27" t="s">
-        <v>473</v>
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="R28" t="s">
-        <v>414</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" t="s">
-        <v>671</v>
+        <v>36</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R29" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M30" t="s">
-        <v>672</v>
+        <v>45</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="R30" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="M31" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>475</v>
-      </c>
-      <c r="K35" s="24">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K37" s="22">
         <v>44924</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="K36" s="24">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K38" s="22">
         <v>44564</v>
       </c>
     </row>
@@ -4729,16 +5451,17 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CAC955B5-BA63-49AE-8455-DCB0484BB07B}"/>
-    <hyperlink ref="M21" r:id="rId2" xr:uid="{67E7922B-6A2B-4AEB-9D38-04EF21365958}"/>
-    <hyperlink ref="M27" r:id="rId3" xr:uid="{AA4F42E1-CA21-4C81-AF61-E929D299C8BC}"/>
-    <hyperlink ref="M28" r:id="rId4" location="installation" xr:uid="{4C33BC18-1571-47C0-BCC4-2DB536B9BC45}"/>
-    <hyperlink ref="B36" r:id="rId5" xr:uid="{53C62C83-76F9-4302-8049-1D9F2F43DDF9}"/>
+    <hyperlink ref="M23" r:id="rId2" xr:uid="{67E7922B-6A2B-4AEB-9D38-04EF21365958}"/>
+    <hyperlink ref="M29" r:id="rId3" xr:uid="{AA4F42E1-CA21-4C81-AF61-E929D299C8BC}"/>
+    <hyperlink ref="M30" r:id="rId4" location="installation" xr:uid="{4C33BC18-1571-47C0-BCC4-2DB536B9BC45}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{53C62C83-76F9-4302-8049-1D9F2F43DDF9}"/>
     <hyperlink ref="J8" location="'3.Component'!A1" display="3.Component" xr:uid="{9F9F9AE5-459C-4DA1-BCBE-AFC3896C5272}"/>
     <hyperlink ref="J9" location="'4.useState'!A1" display="4.useState" xr:uid="{A379BE02-A27A-4D88-9249-8432494B7DDC}"/>
     <hyperlink ref="J10" location="'5.RenderList'!A1" display="5.RenderList" xr:uid="{C4A1AE85-944E-463F-A842-68F12863221E}"/>
     <hyperlink ref="J11" location="'6.Style'!A1" display="6.Style" xr:uid="{07D61642-9F57-491A-94DE-B2E82B426AE2}"/>
-    <hyperlink ref="J14" location="'10.UseEffect'!A1" display="10.UseEffect" xr:uid="{89550841-E73A-4F06-9FD2-81617C48C729}"/>
-    <hyperlink ref="J24" location="'21.Deploy'!A1" display="21.Deploy" xr:uid="{A1608A3A-4F55-4EEF-96B9-E79B3A050F13}"/>
+    <hyperlink ref="J15" location="'10.UseEffect'!A1" display="10.UseEffect" xr:uid="{89550841-E73A-4F06-9FD2-81617C48C729}"/>
+    <hyperlink ref="J26" location="'21.Deploy'!A1" display="21.Deploy" xr:uid="{A1608A3A-4F55-4EEF-96B9-E79B3A050F13}"/>
+    <hyperlink ref="J14" location="'9.Fragment'!A1" display="'9.Fragment" xr:uid="{B4CB4FC9-B32F-4AA9-BF3F-141874CB2631}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -4747,6 +5470,133 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D9D265-7661-41E2-8F58-51E51B362C39}">
+  <dimension ref="B1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818115DD-5FA9-495E-93E6-8A4516AFECDE}">
   <dimension ref="B1:M83"/>
   <sheetViews>
@@ -4758,457 +5608,457 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="26" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="28" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="25" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="27" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="28" t="s">
-        <v>547</v>
+      <c r="D35" s="26" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="25" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="27" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
+        <v>556</v>
+      </c>
+      <c r="M41" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" s="4" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D47" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D48" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D49" s="6"/>
       <c r="M49" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D50" s="6"/>
       <c r="M50" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D51" s="6"/>
       <c r="M51" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D52" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M52" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D53" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M53" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D54" s="6"/>
       <c r="M54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D55" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D56" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D57" s="6"/>
       <c r="M57" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D58" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D59" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="B61" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
       <c r="M61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
+        <v>564</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D65" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="M64" s="4" t="s">
+      <c r="H65" t="s">
+        <v>574</v>
+      </c>
+      <c r="M65" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D65" s="29" t="s">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D66" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="H65" t="s">
-        <v>575</v>
-      </c>
-      <c r="M65" t="s">
+      <c r="H66" t="s">
+        <v>573</v>
+      </c>
+      <c r="M66" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D66" s="29" t="s">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="H66" t="s">
-        <v>574</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="H67" t="s">
+        <v>572</v>
+      </c>
+      <c r="M67" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D67" s="29" t="s">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="H67" t="s">
-        <v>573</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="H68" t="s">
+        <v>571</v>
+      </c>
+      <c r="M68" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D68" s="29" t="s">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="H68" t="s">
-        <v>572</v>
-      </c>
-      <c r="M68" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D69" s="29" t="s">
+      <c r="H69" t="s">
         <v>570</v>
       </c>
-      <c r="H69" t="s">
-        <v>571</v>
-      </c>
       <c r="M69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M75" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -5227,14 +6077,14 @@
   <dimension ref="B1:H70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5247,330 +6097,330 @@
     </row>
     <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>61</v>
+      <c r="B9" s="34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="35" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E28" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E29" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D53" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D60" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5587,26 +6437,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC4A4B2-6F7D-44F8-8C98-A7DE08C537DE}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5619,711 +6471,711 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="14"/>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+      <c r="D15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
-      <c r="D15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
       <c r="E33" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
       <c r="E44" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D45" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="L48" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="R48" s="17" t="s">
-        <v>169</v>
+      <c r="C48" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D49" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="L56" t="s">
         <v>155</v>
       </c>
-      <c r="L56" t="s">
-        <v>156</v>
-      </c>
       <c r="R56" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L57" t="s">
+        <v>164</v>
+      </c>
+      <c r="R57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="R57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L58" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="R58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D66" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D73" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D80" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
+        <v>210</v>
+      </c>
+      <c r="L101" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="L101" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D108" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C121" s="13" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C121" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E135" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M135" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="M135" s="6" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="136" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E141" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="146" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="3:15" x14ac:dyDescent="0.25">
       <c r="E147" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="O147" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="O147" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="149" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C149" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6338,35 +7190,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E31186-5C3D-4EAA-8345-0EFC8AB7596B}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6379,242 +7231,237 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="30" t="s">
-        <v>637</v>
+      <c r="D13" s="28" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>638</v>
+      <c r="C22" s="6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>639</v>
+      <c r="C26" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>640</v>
+      <c r="D28" s="6" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>641</v>
+      <c r="C32" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>648</v>
+      <c r="C33" s="6" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
-        <v>666</v>
+      <c r="C34" s="6"/>
+      <c r="D34" t="s">
+        <v>664</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="6"/>
       <c r="D35" t="s">
-        <v>667</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
       <c r="D36" t="s">
-        <v>665</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="6"/>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
-        <v>661</v>
+      <c r="D39" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>649</v>
+        <v>647</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>650</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>206</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>642</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -6628,7 +7475,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D997D810-4D24-43CC-A4E7-C061D78D7F79}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -6636,39 +7483,536 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{3AC78A15-7884-4084-A262-038F48FD1226}"/>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{54045F7D-7BA7-4F10-BBCE-98B74A669563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA338197-8DF3-45FD-AD82-3AD6C8515FCD}">
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="H20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="H23" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="M42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="24" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{88A5C8A7-C520-4BCC-B249-B55CA662D2F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6C4356-0BFA-4DD7-9955-C0CBD8458AA6}">
   <dimension ref="A1:J77"/>
   <sheetViews>
@@ -6678,340 +8022,340 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D21" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="23" t="s">
-        <v>399</v>
+      <c r="E35" s="21" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="23" t="s">
-        <v>400</v>
+      <c r="E37" s="21" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="23" t="s">
-        <v>401</v>
+      <c r="E39" s="21" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
+        <v>415</v>
+      </c>
+      <c r="J60" t="s">
         <v>416</v>
-      </c>
-      <c r="J60" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
+        <v>415</v>
+      </c>
+      <c r="J70" t="s">
         <v>416</v>
-      </c>
-      <c r="J70" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J72" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J73" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7023,23 +8367,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F33E95-6BA3-4923-8488-FAE427356E73}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7047,233 +8393,233 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E11" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="9" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="34" t="s">
-        <v>741</v>
+      <c r="C36" s="32" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="27" t="s">
-        <v>745</v>
+      <c r="C42" s="25" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G53" s="6" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G54" s="6" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -7285,249 +8631,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AAE5-8895-4972-BA44-ABCE854AC42B}">
   <dimension ref="B2:S271"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79:H79"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -7535,1010 +8881,1010 @@
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D71" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D72" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C75" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
+        <v>293</v>
+      </c>
+      <c r="I76" t="s">
         <v>294</v>
-      </c>
-      <c r="I76" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>300</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>296</v>
+        <v>299</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="22"/>
+        <v>284</v>
+      </c>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H80" t="s">
         <v>301</v>
-      </c>
-      <c r="H80" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>300</v>
-      </c>
-      <c r="D91" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="K91" t="s">
         <v>315</v>
       </c>
-      <c r="K91" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="92" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D92" s="23" t="s">
-        <v>324</v>
+      <c r="D92" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K97" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C103" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C113" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I115" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I118" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I119" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="15" t="s">
-        <v>350</v>
+      <c r="C122" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="15" t="s">
-        <v>356</v>
+      <c r="C125" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D127" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D128" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D132" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D133" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D134" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J134" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D135" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D139" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="J139" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="J139" s="10" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J142" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C144" s="15" t="s">
-        <v>374</v>
+      <c r="C144" s="14" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B147" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
-      <c r="M147" s="21"/>
+      <c r="B147" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
+        <v>446</v>
+      </c>
+      <c r="H171" t="s">
         <v>447</v>
-      </c>
-      <c r="H171" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="172" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I172" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I173" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I174" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D175" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I175" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D176" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I176" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="K176" s="18" t="s">
         <v>452</v>
-      </c>
-      <c r="K176" s="20" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="177" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I178" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="179" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J180" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D181" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J181" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D182" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J182" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J184" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J185" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J186" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J187" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J188" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J189" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J190" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J191" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J193" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
+        <v>470</v>
+      </c>
+      <c r="J197" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B199" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D201" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D202" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D203" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D204" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C205" s="15" t="s">
-        <v>684</v>
+      <c r="C205" s="14" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D206" s="20" t="s">
-        <v>683</v>
+      <c r="D206" s="18" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D208" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="209" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="210" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D210" s="6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="211" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J211" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="212" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J213" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="214" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J214" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="215" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J215" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="216" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J217" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="219" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="220" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>698</v>
+        <v>762</v>
       </c>
     </row>
     <row r="221" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
     </row>
     <row r="222" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D222" s="6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="223" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="K227" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K228" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K229" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K230" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K231" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K233" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D234" s="33" t="s">
-        <v>711</v>
+      <c r="D234" s="31" t="s">
+        <v>706</v>
       </c>
       <c r="K234" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K235" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C239" s="21"/>
-      <c r="D239" s="21"/>
-      <c r="E239" s="21"/>
-      <c r="F239" s="21"/>
-      <c r="G239" s="21"/>
-      <c r="H239" s="21"/>
-      <c r="I239" s="21"/>
-      <c r="J239" s="21"/>
-      <c r="K239" s="21"/>
-      <c r="L239" s="21"/>
-      <c r="M239" s="21"/>
+        <v>483</v>
+      </c>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="19"/>
+      <c r="K239" s="19"/>
+      <c r="L239" s="19"/>
+      <c r="M239" s="19"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M240" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D241" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D242" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D243" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E244" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D245" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D246" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="3:5" x14ac:dyDescent="0.25">
@@ -8546,128 +9892,128 @@
     </row>
     <row r="248" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C248" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="249" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="251" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C254" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="256" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C256" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="258" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="259" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="261" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="262" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="263" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="266" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C266" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="268" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B268" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C268" s="21"/>
-      <c r="D268" s="21"/>
-      <c r="E268" s="21"/>
-      <c r="F268" s="21"/>
-      <c r="G268" s="21"/>
-      <c r="H268" s="21"/>
-      <c r="I268" s="21"/>
-      <c r="J268" s="21"/>
-      <c r="K268" s="21"/>
-      <c r="L268" s="21"/>
-      <c r="M268" s="21"/>
+        <v>511</v>
+      </c>
+      <c r="C268" s="19"/>
+      <c r="D268" s="19"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="19"/>
+      <c r="G268" s="19"/>
+      <c r="H268" s="19"/>
+      <c r="I268" s="19"/>
+      <c r="J268" s="19"/>
+      <c r="K268" s="19"/>
+      <c r="L268" s="19"/>
+      <c r="M268" s="19"/>
     </row>
     <row r="269" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="270" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D270" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -8682,131 +10028,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D9D265-7661-41E2-8F58-51E51B362C39}">
-  <dimension ref="B1:D30"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F73664-DC72-4D1A-8760-70B95B7EB038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF4394-DFA5-4649-924C-E3ABCE8E5F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="525" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="10.useEffect" sheetId="6" r:id="rId7"/>
     <sheet name="10.useReducer" sheetId="12" r:id="rId8"/>
     <sheet name="10.useContext" sheetId="13" r:id="rId9"/>
-    <sheet name="13.ClassLifecycle" sheetId="8" r:id="rId10"/>
-    <sheet name="14.http" sheetId="14" r:id="rId11"/>
-    <sheet name="21.Deploy" sheetId="10" r:id="rId12"/>
-    <sheet name="DOM" sheetId="5" r:id="rId13"/>
-    <sheet name="Hooks" sheetId="7" r:id="rId14"/>
+    <sheet name="12.Optimization" sheetId="15" r:id="rId10"/>
+    <sheet name="13.ClassLifecycle" sheetId="8" r:id="rId11"/>
+    <sheet name="14.http" sheetId="14" r:id="rId12"/>
+    <sheet name="21.Deploy" sheetId="10" r:id="rId13"/>
+    <sheet name="DOM" sheetId="5" r:id="rId14"/>
+    <sheet name="Hooks" sheetId="7" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1099">
   <si>
     <t>React - The Complete Guide (incl Hooks, React Router, Redux)</t>
   </si>
@@ -3192,21 +3193,12 @@
     <t>Deployment Steps</t>
   </si>
   <si>
-    <t>Test Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimize Code </t>
-  </si>
-  <si>
     <t>Build App for Production</t>
   </si>
   <si>
     <t>Upload Production Code to Server</t>
   </si>
   <si>
-    <t>Configure Server</t>
-  </si>
-  <si>
     <t>(Lazy loading)</t>
   </si>
   <si>
@@ -3253,9 +3245,6 @@
   </si>
   <si>
     <t>build: react-scripts build</t>
-  </si>
-  <si>
-    <t>-&gt; $ npm run build</t>
   </si>
   <si>
     <t>-&gt; build folder</t>
@@ -4870,13 +4859,450 @@
   </si>
   <si>
     <t xml:space="preserve">    console.log(data);</t>
+  </si>
+  <si>
+    <t>1. Test Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Optimize Code </t>
+  </si>
+  <si>
+    <t>3. Build App for Production</t>
+  </si>
+  <si>
+    <t>4. Upload Production Code to Server</t>
+  </si>
+  <si>
+    <t>5. Configure Server</t>
+  </si>
+  <si>
+    <t>npm run build</t>
+  </si>
+  <si>
+    <t>-&gt; npm run build</t>
+  </si>
+  <si>
+    <t>How does React work behind the scene?</t>
+  </si>
+  <si>
+    <t>Understand the Virtual DOM &amp; DOM updates</t>
+  </si>
+  <si>
+    <t>Understand State &amp; State updates</t>
+  </si>
+  <si>
+    <t>12.Optimization</t>
+  </si>
+  <si>
+    <t>How does React work?</t>
+  </si>
+  <si>
+    <t>React xác định component tree hiện tại như thế nào và sẽ trông như thế nào</t>
+  </si>
+  <si>
+    <t>ReactDOM nhận sự thay đổi và điều khiển RealDOM</t>
+  </si>
+  <si>
+    <t>Re-Evaluating Components !== Re-rendering the DOM</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Real DOM</t>
+  </si>
+  <si>
+    <t>Chỉ thay đổi khi có sự khác biệt sau khi evaluate</t>
+  </si>
+  <si>
+    <t>Re-evaluated mỗi khi props, state hoặc context thay đổi</t>
+  </si>
+  <si>
+    <t>React execute các component functions!</t>
+  </si>
+  <si>
+    <t>=&gt; prevent unnecessary re-evaluation</t>
+  </si>
+  <si>
+    <t>React.memo()</t>
+  </si>
+  <si>
+    <t>Ngăn ngừa việc re-evaluation không cần thiết.</t>
+  </si>
+  <si>
+    <t>=&gt; dù props.show là cố định, nhưng Demo component vẫn bị re-render mỗi khi App re-render</t>
+  </si>
+  <si>
+    <t>Áp dụng:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">export default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React.memo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Demo);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;Demo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show={true}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ có kiểu primitive (boolean, string,…) mới là không đổi </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T/h2 : Khi props là một function -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function luôn được tạo mới</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mỗi khi parent component re-render</t>
+    </r>
+  </si>
+  <si>
+    <t>=&gt; Button component luôn được re-render khi parent component re-render</t>
+  </si>
+  <si>
+    <t>React.memo, useCallback, useMemo</t>
+  </si>
+  <si>
+    <t>Ví dụ: Khi App component truyền props vào Demo component</t>
+  </si>
+  <si>
+    <t>useCallback()</t>
+  </si>
+  <si>
+    <t>Là một React hook</t>
+  </si>
+  <si>
+    <t>trả về cùng một function giống nhau khi được gọi.</t>
+  </si>
+  <si>
+    <t>=&gt; Cần áp dụng pp khác: useCallback()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behind the scene: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setShowPara(prevState =&gt; !prevState);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }, []);</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Button onClick={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toggleParagraphHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}&gt;Toggle Paragraph&lt;/Button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toggleParagraphHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useCallback</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(() =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>=&gt; Hạn chế việc re-render không cần thiết</t>
+  </si>
+  <si>
+    <t>useCallback() và Dependencies</t>
+  </si>
+  <si>
+    <t>Khi sử dụng useCallback, các function bao gồm cả các biến bên trong nó được giữ nguyên.</t>
+  </si>
+  <si>
+    <t>=&gt; VẤN ĐỀ: biến không được update khi state thay đổi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      setShowPara(prevState =&gt; !prevState);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allowToggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  const [allowToggle, setAllowToggle] = useState(false);</t>
+  </si>
+  <si>
+    <t>//biến này không đổi khi state update</t>
+  </si>
+  <si>
+    <t>=&gt; Sử dụng Dependency: tạo lại function khi dependency thay đổi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  }, [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allowToggle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript/Closures</t>
+  </si>
+  <si>
+    <t>//tạo function mới khi state update</t>
+  </si>
+  <si>
+    <t>useMemo()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chứa </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vào trong React internal</t>
+    </r>
+  </si>
+  <si>
+    <t>memorize/store data: array, object, expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return items.sort((a, b) =&gt; a - b);</t>
+  </si>
+  <si>
+    <t>}, [items]);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const sortedList = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useMemo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(() =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const listItems = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useMemo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(() =&gt; { return [1, 2, 3]; }, []);</t>
+    </r>
+  </si>
+  <si>
+    <t>Section 17</t>
+  </si>
+  <si>
+    <t>Practice 3: Adding http &amp; forms to food order app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5054,6 +5480,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5082,7 +5516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5123,6 +5557,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5481,6 +5916,749 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923458" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80008845-0745-4F28-A750-FD8BF89A8063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8762999" y="3249706"/>
+          <a:ext cx="923458" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Internal data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251011</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3B22B7-054C-4961-8355-8F096CC1594F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7512423" y="2290483"/>
+          <a:ext cx="1187824" cy="549088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Components</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>251012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127DF756-27B5-46F6-93CE-C976AECECCD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496735" y="1535206"/>
+          <a:ext cx="1225924" cy="351865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Context</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>239806</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>255495</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A31F63-2505-44BA-8D4E-35785DC56EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7501218" y="3231777"/>
+          <a:ext cx="1225924" cy="351865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>State</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239806</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C7E1D0-D6DC-428C-A06E-B58D520C1407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5685865" y="2424954"/>
+          <a:ext cx="1225924" cy="351865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Props</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>575981</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC330A5-09FF-4575-8FFB-839C32DA8011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9312088" y="2290484"/>
+          <a:ext cx="1550893" cy="560294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Real DOM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>what</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> the user sees</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>239806</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Arrow: Right 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80EF576-EF20-458A-AE72-9F465805C9F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6694395" y="2458571"/>
+          <a:ext cx="806823" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52668</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>417980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49310</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Arrow: Right 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C210D1BD-17B6-4E49-9F72-6AA103E3C716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7834592" y="1896599"/>
+          <a:ext cx="534522" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48185</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>413497</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Arrow: Right 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C71D10-747A-4A57-819C-ABFFAACCCBF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7830109" y="2867029"/>
+          <a:ext cx="534522" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206189</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1470339" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517FEE50-B17C-4BE6-A94F-6546157B7BA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677836" y="1573306"/>
+          <a:ext cx="1470339" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component-wide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1872116" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74415FC-58C2-4E1D-A26B-7197EC9E1DA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5446059" y="2835089"/>
+          <a:ext cx="1872116" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> from parent component</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>172571</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Arrow: Right 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACD1CC9-E5FA-46D4-A5D2-40ABD4430482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8644218" y="2436158"/>
+          <a:ext cx="690283" cy="275665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -5545,7 +6723,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5594,7 +6772,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5994,10 +7172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R39"/>
+  <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,7 +7212,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K8" s="29">
         <v>44906</v>
@@ -6048,7 +7226,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K9" s="29">
         <v>44914</v>
@@ -6062,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K10" s="29">
         <v>44928</v>
@@ -6076,7 +7254,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K11" s="29">
         <v>44938</v>
@@ -6095,10 +7273,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C13" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="K13" s="29">
         <v>44940</v>
@@ -6109,10 +7287,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K14" s="29">
         <v>44940</v>
@@ -6123,10 +7301,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K15" s="29">
         <v>44940</v>
@@ -6134,10 +7312,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="K16" s="29">
         <v>44941</v>
@@ -6145,10 +7323,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="K17" s="29">
         <v>44941</v>
@@ -6156,10 +7334,10 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C18" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -6170,6 +7348,12 @@
       <c r="C19" t="s">
         <v>24</v>
       </c>
+      <c r="J19" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K19" s="29">
+        <v>44943</v>
+      </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -6179,7 +7363,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="K20" s="29">
         <v>44942</v>
@@ -6193,7 +7377,10 @@
         <v>26</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>990</v>
+        <v>986</v>
+      </c>
+      <c r="K21" s="29">
+        <v>44942</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
@@ -6214,152 +7401,160 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>1097</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>55</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="K27" s="29">
-        <v>44930</v>
+        <v>31</v>
       </c>
       <c r="M27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="K28" s="29">
+        <v>44930</v>
       </c>
       <c r="M28" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="R30" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="R31" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" t="s">
-        <v>661</v>
+        <v>44</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R32" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="M34" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>470</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K39" s="22">
         <v>44924</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K40" s="22">
         <v>44564</v>
       </c>
     </row>
@@ -6367,21 +7562,22 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{CAC955B5-BA63-49AE-8455-DCB0484BB07B}"/>
-    <hyperlink ref="M24" r:id="rId2" xr:uid="{67E7922B-6A2B-4AEB-9D38-04EF21365958}"/>
-    <hyperlink ref="M30" r:id="rId3" xr:uid="{AA4F42E1-CA21-4C81-AF61-E929D299C8BC}"/>
-    <hyperlink ref="M31" r:id="rId4" location="installation" xr:uid="{4C33BC18-1571-47C0-BCC4-2DB536B9BC45}"/>
-    <hyperlink ref="B39" r:id="rId5" xr:uid="{53C62C83-76F9-4302-8049-1D9F2F43DDF9}"/>
+    <hyperlink ref="M25" r:id="rId2" xr:uid="{67E7922B-6A2B-4AEB-9D38-04EF21365958}"/>
+    <hyperlink ref="M31" r:id="rId3" xr:uid="{AA4F42E1-CA21-4C81-AF61-E929D299C8BC}"/>
+    <hyperlink ref="M32" r:id="rId4" location="installation" xr:uid="{4C33BC18-1571-47C0-BCC4-2DB536B9BC45}"/>
+    <hyperlink ref="B40" r:id="rId5" xr:uid="{53C62C83-76F9-4302-8049-1D9F2F43DDF9}"/>
     <hyperlink ref="J8" location="'3.Component'!A1" display="3.Component" xr:uid="{9F9F9AE5-459C-4DA1-BCBE-AFC3896C5272}"/>
     <hyperlink ref="J9" location="'4.useState'!A1" display="4.useState" xr:uid="{A379BE02-A27A-4D88-9249-8432494B7DDC}"/>
     <hyperlink ref="J10" location="'5.RenderList'!A1" display="5.RenderList" xr:uid="{C4A1AE85-944E-463F-A842-68F12863221E}"/>
     <hyperlink ref="J11" location="'6.Style'!A1" display="6.Style" xr:uid="{07D61642-9F57-491A-94DE-B2E82B426AE2}"/>
     <hyperlink ref="J15" location="'10.UseEffect'!A1" display="10.UseEffect" xr:uid="{89550841-E73A-4F06-9FD2-81617C48C729}"/>
-    <hyperlink ref="J27" location="'21.Deploy'!A1" display="21.Deploy" xr:uid="{A1608A3A-4F55-4EEF-96B9-E79B3A050F13}"/>
+    <hyperlink ref="J28" location="'21.Deploy'!A1" display="21.Deploy" xr:uid="{A1608A3A-4F55-4EEF-96B9-E79B3A050F13}"/>
     <hyperlink ref="J14" location="'9.Fragment'!A1" display="'9.Fragment" xr:uid="{B4CB4FC9-B32F-4AA9-BF3F-141874CB2631}"/>
     <hyperlink ref="J16" location="'10.useReducer'!A1" display="'10.useReducer" xr:uid="{5685383D-A2FA-4EC3-82D9-7362046D59C5}"/>
     <hyperlink ref="J17" location="'10.useContext'!A1" display="'10.useContext" xr:uid="{205D2731-DB42-4462-9AF5-859F910E58D6}"/>
     <hyperlink ref="J20" location="'13.ClassLifecycle'!A1" display="'13.ClassLifecycle" xr:uid="{896D7DA3-33BE-47E7-8E25-D72BCC04B8F8}"/>
     <hyperlink ref="J21" location="'14.http'!A1" display="'14.http" xr:uid="{0A522652-D386-4F99-998C-E844A21B255E}"/>
+    <hyperlink ref="J19" location="'12.Optimization'!A1" display="'12.Optimization" xr:uid="{427A2453-5E42-49EE-AF1C-B9FE524201AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -6390,6 +7586,319 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CA327F-B97A-4665-A7A7-EF09848B5E27}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="16" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="9" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="9" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="6"/>
+      <c r="D50" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{68F65D08-56FD-4495-900A-E979F99C094A}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{BD1AB6BB-3E25-4768-ACCF-0116F248D86E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818115DD-5FA9-495E-93E6-8A4516AFECDE}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -6417,22 +7926,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6440,7 +7949,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6548,10 +8057,10 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" s="25" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -6648,7 +8157,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D51" s="6" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="M51" t="s">
         <v>592</v>
@@ -6816,7 +8325,7 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C71" s="14" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="M71" t="s">
         <v>606</v>
@@ -6837,7 +8346,7 @@
     </row>
     <row r="75" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -6853,7 +8362,7 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M76" t="s">
         <v>609</v>
@@ -6861,7 +8370,7 @@
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="M77" t="s">
         <v>125</v>
@@ -6874,18 +8383,18 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C79" s="16" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H80" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="M80" t="s">
         <v>610</v>
@@ -6896,7 +8405,7 @@
         <v>595</v>
       </c>
       <c r="H81" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="M81" t="s">
         <v>611</v>
@@ -6904,7 +8413,7 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H82" t="s">
         <v>75</v>
@@ -6925,42 +8434,42 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D87" s="36" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -6975,13 +8484,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8615145-4EC8-409D-9AD0-4BE86352B7C9}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6992,20 +8499,20 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7018,221 +8525,221 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="4" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
@@ -7242,12 +8749,12 @@
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
@@ -7267,11 +8774,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F33E95-6BA3-4923-8488-FAE427356E73}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7283,7 +8792,7 @@
         <v>704</v>
       </c>
       <c r="H1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -7314,85 +8823,88 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>708</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>709</v>
-      </c>
-      <c r="E11" t="s">
-        <v>713</v>
+        <v>1038</v>
+      </c>
+      <c r="G11" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>710</v>
+        <v>1039</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>711</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>712</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -7402,122 +8914,122 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="32" t="s">
-        <v>729</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="25" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G53" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G54" s="6" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -7529,7 +9041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AAE5-8895-4972-BA44-ABCE854AC42B}">
   <dimension ref="B2:S271"/>
   <sheetViews>
@@ -8629,12 +10141,12 @@
     </row>
     <row r="220" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="221" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="222" spans="3:10" x14ac:dyDescent="0.25">
@@ -8928,7 +10440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D9D265-7661-41E2-8F58-51E51B362C39}">
   <dimension ref="B1:G39"/>
   <sheetViews>
@@ -8950,7 +10462,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8984,7 +10496,7 @@
         <v>516</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -8992,7 +10504,7 @@
         <v>517</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -9005,7 +10517,7 @@
         <v>519</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -9023,7 +10535,7 @@
         <v>522</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -9031,7 +10543,7 @@
         <v>523</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -9071,42 +10583,42 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -9120,7 +10632,7 @@
   <dimension ref="B1:H72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,17 +10657,17 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -10344,7 +11856,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -10562,152 +12074,152 @@
     <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -10737,17 +12249,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -10755,68 +12267,68 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="H20" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" s="9" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10824,138 +12336,138 @@
         <v>75</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="H23" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" s="9" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" s="9" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" s="8" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="21" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" s="24" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="M42" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" s="24" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -10965,32 +12477,32 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -11000,62 +12512,62 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -11095,7 +12607,7 @@
         <v>376</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11118,7 +12630,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11158,17 +12670,17 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -11432,42 +12944,42 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -11497,18 +13009,18 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11518,92 +13030,92 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="21" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F14" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="F15" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F16" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F20" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
@@ -11613,15 +13125,15 @@
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
@@ -11631,37 +13143,37 @@
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
@@ -11671,30 +13183,30 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -11704,39 +13216,39 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C47" s="16" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="H48" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H49" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="H50" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -11752,7 +13264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BEAA15-8479-45BC-B250-088745942515}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -11765,18 +13277,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="37" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -11786,53 +13298,53 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -11842,37 +13354,37 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -11882,57 +13394,57 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF4394-DFA5-4649-924C-E3ABCE8E5F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA9B545-A058-4AA8-A797-AD4A10E3D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,11 @@
     <sheet name="12.Optimization" sheetId="15" r:id="rId10"/>
     <sheet name="13.ClassLifecycle" sheetId="8" r:id="rId11"/>
     <sheet name="14.http" sheetId="14" r:id="rId12"/>
-    <sheet name="21.Deploy" sheetId="10" r:id="rId13"/>
-    <sheet name="DOM" sheetId="5" r:id="rId14"/>
-    <sheet name="Hooks" sheetId="7" r:id="rId15"/>
+    <sheet name="15.customHook" sheetId="17" r:id="rId13"/>
+    <sheet name="18.Redux" sheetId="16" r:id="rId14"/>
+    <sheet name="21.Deploy" sheetId="10" r:id="rId15"/>
+    <sheet name="DOM" sheetId="5" r:id="rId16"/>
+    <sheet name="Hooks" sheetId="7" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1166">
   <si>
     <t>React - The Complete Guide (incl Hooks, React Router, Redux)</t>
   </si>
@@ -4792,15 +4794,6 @@
     <t xml:space="preserve">      &lt;section&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">        {!isLoading &amp;&amp; &lt;MoviesList movies={movies} /&gt;}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {!isLoading &amp;&amp; movies.length === 0 &amp;&amp; &lt;p&gt;Found no movies.&lt;/p&gt;}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        {isLoading &amp;&amp; &lt;p&gt;Loading...&lt;/p&gt;}</t>
-  </si>
-  <si>
     <t xml:space="preserve">      &lt;/section&gt;</t>
   </si>
   <si>
@@ -5296,6 +5289,479 @@
   </si>
   <si>
     <t>Practice 3: Adding http &amp; forms to food order app</t>
+  </si>
+  <si>
+    <t>18.Redux</t>
+  </si>
+  <si>
+    <t>Redux là gì?</t>
+  </si>
+  <si>
+    <t>Sử dụng Redux với React</t>
+  </si>
+  <si>
+    <t>Redux toolkit</t>
+  </si>
+  <si>
+    <t>Local State</t>
+  </si>
+  <si>
+    <t>Cross-Component State</t>
+  </si>
+  <si>
+    <t>State thuộc 1 component</t>
+  </si>
+  <si>
+    <t>Ex. user input / toggling field</t>
+  </si>
+  <si>
+    <t>=&gt; internal component</t>
+  </si>
+  <si>
+    <t>useState/useReducer</t>
+  </si>
+  <si>
+    <t>App-wide State</t>
+  </si>
+  <si>
+    <t>state ảnh hưởng nhiều component</t>
+  </si>
+  <si>
+    <t>Ex. Open/close state of modal overlay</t>
+  </si>
+  <si>
+    <t>=&gt; y/c props chains/prop drilling</t>
+  </si>
+  <si>
+    <t>state ảnh hưởng app-wide</t>
+  </si>
+  <si>
+    <t>Ex. user authentication status</t>
+  </si>
+  <si>
+    <t>React Context or Redux</t>
+  </si>
+  <si>
+    <t>So sánh Redux vs React Context</t>
+  </si>
+  <si>
+    <t>Complex setup/management</t>
+  </si>
+  <si>
+    <t>Ex. AuthContextProvider-&gt;ThemeContextProvider-&gt;…</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>chỉ hỗ trợ low frequency change</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Potential disadvantages của </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React Context</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state management system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho cross-component or app-wide state.</t>
+    </r>
+  </si>
+  <si>
+    <t>Redux làm việc ntn?</t>
+  </si>
+  <si>
+    <t>Centra Data/State store.</t>
+  </si>
+  <si>
+    <t>Nhận data: Setup subscription từ các Component.</t>
+  </si>
+  <si>
+    <t>Khi data thay đổi, Component sẽ được thông báo.</t>
+  </si>
+  <si>
+    <t>Thay đổi data:</t>
+  </si>
+  <si>
+    <t>Reducer Function (không phải hook useReducer())</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; (Dispatch) --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; (forwarded to) --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reducer Function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; (mutates) --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Central Data Store</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!isLoading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; &lt;MoviesList movies={movies} /&gt;}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!isLoading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; movies.length === 0 &amp;&amp; &lt;p&gt;Found no movies.&lt;/p&gt;}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isLoading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; &lt;p&gt;Loading...&lt;/p&gt;}</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom hook là gì?</t>
+  </si>
+  <si>
+    <t>Xây dựng một custom hook</t>
+  </si>
+  <si>
+    <t>Custom hook rules &amp; practices</t>
+  </si>
+  <si>
+    <t>15.customHook</t>
+  </si>
+  <si>
+    <t>custom hooks có thể sử dụng các react hooks và react state.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">outsource </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stateful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> logic into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re-usable functions</t>
+    </r>
+  </si>
+  <si>
+    <t>bản chất là các function</t>
+  </si>
+  <si>
+    <t>Ví dụ: custom hook counter - tăng giảm 1 đơn vị theo chu kỳ 1s</t>
+  </si>
+  <si>
+    <t>/hooks/use-counter.js</t>
+  </si>
+  <si>
+    <t>import { useEffect, useState } from 'react';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const [counter, setCounter] = useState(0);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const interval = setInterval(() =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      if (increase) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        setCounter((prevCounter) =&gt; prevCounter + 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        setCounter((prevCounter) =&gt; prevCounter - 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }, 1000);</t>
+  </si>
+  <si>
+    <t>// clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return () =&gt; clearInterval(interval);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return counter;</t>
+  </si>
+  <si>
+    <t>export default useCounter;</t>
+  </si>
+  <si>
+    <t>/components/ForwardCounter.js</t>
+  </si>
+  <si>
+    <t>import useCounter from '../hooks/use-counter';</t>
+  </si>
+  <si>
+    <t>import Card from './Card';</t>
+  </si>
+  <si>
+    <t>const ForwardCounter = () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return &lt;Card&gt;{counter}&lt;/Card&gt;;</t>
+  </si>
+  <si>
+    <t>export default ForwardCounter;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  const counter = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useCounter(true);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useCounter = (increase = true)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: bind() function</t>
+  </si>
+  <si>
+    <t>giúp pre-config function mà ko thực thi chúng.</t>
+  </si>
+  <si>
+    <t>https://academind.com/tutorials/function-bind-event-execution</t>
+  </si>
+  <si>
+    <t>/components/BackwardCounter.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  const counter = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>useCounter(false);</t>
+    </r>
+  </si>
+  <si>
+    <t>//Tăng 1 đơn vị</t>
+  </si>
+  <si>
+    <t>//Giảm 1 đơn vị</t>
   </si>
 </sst>
 </file>
@@ -5516,7 +5982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5558,6 +6024,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7174,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7340,6 +7807,9 @@
         <v>786</v>
       </c>
       <c r="J18" s="30"/>
+      <c r="K18" s="29">
+        <v>44950</v>
+      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -7349,7 +7819,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="K19" s="29">
         <v>44943</v>
@@ -7390,6 +7860,12 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
+      <c r="J22" s="30" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K22" s="29">
+        <v>44954</v>
+      </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -7401,10 +7877,10 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C24" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
@@ -7413,6 +7889,9 @@
       </c>
       <c r="C25" t="s">
         <v>29</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>1096</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>55</v>
@@ -7578,6 +8057,8 @@
     <hyperlink ref="J20" location="'13.ClassLifecycle'!A1" display="'13.ClassLifecycle" xr:uid="{896D7DA3-33BE-47E7-8E25-D72BCC04B8F8}"/>
     <hyperlink ref="J21" location="'14.http'!A1" display="'14.http" xr:uid="{0A522652-D386-4F99-998C-E844A21B255E}"/>
     <hyperlink ref="J19" location="'12.Optimization'!A1" display="'12.Optimization" xr:uid="{427A2453-5E42-49EE-AF1C-B9FE524201AF}"/>
+    <hyperlink ref="J25" location="'18.Redux'!A1" display="'18.Redux" xr:uid="{7D803CE0-757E-4F51-96B8-151558B0793A}"/>
+    <hyperlink ref="J22" location="'15.customHook'!A1" display="'15.customHook" xr:uid="{EE00C5B5-C176-4FFD-9A2E-2B23F1E63D5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -7598,25 +8079,25 @@
         <v>702</v>
       </c>
       <c r="B1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7629,140 +8110,140 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="16" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="9" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E32" s="9" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -7772,56 +8253,56 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -7831,35 +8312,35 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C56" s="6" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -7869,22 +8350,22 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -8568,15 +9049,15 @@
         <v>1009</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -8586,12 +9067,12 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -8664,82 +9145,82 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>1014</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1015</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>1016</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
@@ -8749,12 +9230,12 @@
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
@@ -8775,6 +9256,407 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7A304-9C10-487B-AEBD-A6E65E14A61F}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="25" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>413</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>826</v>
+      </c>
+      <c r="J31" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{7EB01CCF-9458-4901-A626-A8B3D8551D35}"/>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{D42361B9-0987-4BDA-9085-105C7B691C9A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B637E407-2E5A-45B1-8F1B-9A200C760104}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="39" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{B37970B0-7191-43CD-B8CA-D1B935F32B4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F33E95-6BA3-4923-8488-FAE427356E73}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -8823,12 +9705,12 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G11" t="s">
         <v>710</v>
@@ -8836,20 +9718,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G12" t="s">
         <v>1039</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8939,7 +9821,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="32" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -9041,12 +9923,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AAE5-8895-4972-BA44-ABCE854AC42B}">
   <dimension ref="B2:S271"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+      <selection activeCell="L13" sqref="L13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10440,7 +11322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D9D265-7661-41E2-8F58-51E51B362C39}">
   <dimension ref="B1:G39"/>
   <sheetViews>
@@ -11002,7 +11884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC4A4B2-6F7D-44F8-8C98-A7DE08C537DE}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>

--- a/ReactJS.xlsx
+++ b/ReactJS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\202301_ReactJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA9B545-A058-4AA8-A797-AD4A10E3D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB297C45-31BB-402D-8930-801287B10540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24345" yWindow="435" windowWidth="15375" windowHeight="10875" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,11 @@
     <sheet name="13.ClassLifecycle" sheetId="8" r:id="rId11"/>
     <sheet name="14.http" sheetId="14" r:id="rId12"/>
     <sheet name="15.customHook" sheetId="17" r:id="rId13"/>
-    <sheet name="18.Redux" sheetId="16" r:id="rId14"/>
-    <sheet name="21.Deploy" sheetId="10" r:id="rId15"/>
-    <sheet name="DOM" sheetId="5" r:id="rId16"/>
-    <sheet name="Hooks" sheetId="7" r:id="rId17"/>
+    <sheet name="16.Form" sheetId="18" r:id="rId14"/>
+    <sheet name="18.Redux" sheetId="16" r:id="rId15"/>
+    <sheet name="21.Deploy" sheetId="10" r:id="rId16"/>
+    <sheet name="DOM" sheetId="5" r:id="rId17"/>
+    <sheet name="Hooks" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="1310">
   <si>
     <t>React - The Complete Guide (incl Hooks, React Router, Redux)</t>
   </si>
@@ -2742,9 +2743,6 @@
   </si>
   <si>
     <t>/components/expenses/AllExpenses.js</t>
-  </si>
-  <si>
-    <t>{props.expenses.map((expense) =&gt; (</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ExpenseItem</t>
@@ -4046,12 +4044,6 @@
     <t>const Login = (props) =&gt; {</t>
   </si>
   <si>
-    <t xml:space="preserve">    value: '',</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    isValid: null,</t>
-  </si>
-  <si>
     <t xml:space="preserve">  if (action.type === 'USER_INPUT') {</t>
   </si>
   <si>
@@ -4064,11 +4056,23 @@
     <t xml:space="preserve">    return { value: state.value, isValid: state.value.includes('@') };</t>
   </si>
   <si>
-    <t xml:space="preserve">  return { value: '', isValid: null };</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">const </t>
+    <t>Function component - useReducer</t>
+  </si>
+  <si>
+    <t>import React, { useReducer } from 'react';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const emailChangeHandler = (event) =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setFormIsValid(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    );</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -4079,7 +4083,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>emailReducer</t>
+      <t>dispatchEmail</t>
     </r>
     <r>
       <rPr>
@@ -4089,15 +4093,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = (state, action) =&gt; {</t>
-    </r>
-  </si>
-  <si>
-    <t>Function component - useReducer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  const [</t>
+      <t>({ type: 'USER_INPUT', val: event.target.value });</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
@@ -4118,70 +4119,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, dispatchEmail] = useReducer(emailReducer, {</t>
-    </r>
-  </si>
-  <si>
-    <t>import React, { useReducer } from 'react';</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  const emailChangeHandler = (event) =&gt; {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    setFormIsValid(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    );</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dispatchEmail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>({ type: 'USER_INPUT', val: event.target.value });</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>emailState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>.isValid &amp;&amp; passwordState.isValid</t>
     </r>
   </si>
@@ -4211,9 +4148,6 @@
   </si>
   <si>
     <t>state snapshot dùng khi component re-render/re-evaluation</t>
-  </si>
-  <si>
-    <t>function được dùng để dispatch action (ví dụ update state)</t>
   </si>
   <si>
     <t>(prevState, action) =&gt; newState</t>
@@ -5762,13 +5696,1410 @@
   </si>
   <si>
     <t>//Giảm 1 đơn vị</t>
+  </si>
+  <si>
+    <r>
+      <t>{props.expenses.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((expense) =&gt; (</t>
+    </r>
+  </si>
+  <si>
+    <t>16.Form</t>
+  </si>
+  <si>
+    <t>Tại sao Form lại phức tạp?</t>
+  </si>
+  <si>
+    <t>Forms và inputs có thể ở các state khác nhau.</t>
+  </si>
+  <si>
+    <t>Một hoặc nhiều input không hợp lệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output specific error message </t>
+  </si>
+  <si>
+    <t>Highlight problematic inputs</t>
+  </si>
+  <si>
+    <t>Đảm bảo không thể submit form</t>
+  </si>
+  <si>
+    <t>Tất cả input hợp lệ</t>
+  </si>
+  <si>
+    <t>Cho phép submit form</t>
+  </si>
+  <si>
+    <t>Validate lúc nào?</t>
+  </si>
+  <si>
+    <t>+ khi form được submit</t>
+  </si>
+  <si>
+    <t>+ Khi một input losing focus</t>
+  </si>
+  <si>
+    <t>+ Mọi keystroke</t>
+  </si>
+  <si>
+    <t>cho phép user nhập trước khi warning</t>
+  </si>
+  <si>
+    <t>tránh warning không cần thiết</t>
+  </si>
+  <si>
+    <t>tốt cho các form không touch được</t>
+  </si>
+  <si>
+    <t>cảnh báo cho tới khi nhập valid input</t>
+  </si>
+  <si>
+    <t>feedback trực tiếp các invalid input</t>
+  </si>
+  <si>
+    <t>nhưng, có thể feedback "too late"</t>
+  </si>
+  <si>
+    <t>=&gt; useRef()</t>
+  </si>
+  <si>
+    <t>=&gt; useState()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  setEnteredName(event.target.value);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nameInputHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (event) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic validation và feedback</t>
+  </si>
+  <si>
+    <t>Sử dụng state để lưu trạng thái valid</t>
+  </si>
+  <si>
+    <t>const [enteredNameIsValid, setEnteredNameIsValid] = useState(true);</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;form onSubmit={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>formSubmitHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi form submit, kiểm tra entered name và set to false nếu invalid</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả lên UI</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!enteredNameIsValid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;&amp; &lt;p className='error-text'&gt;Name must not be empty&lt;/p&gt;}</t>
+    </r>
+  </si>
+  <si>
+    <t>//update every keystroke</t>
+  </si>
+  <si>
+    <t>Validate khi form được submit</t>
+  </si>
+  <si>
+    <t>Validate khi input losing focus</t>
+  </si>
+  <si>
+    <t>Sử dụng thuộc tính onBlur</t>
+  </si>
+  <si>
+    <t>Validate mọi keystroke</t>
+  </si>
+  <si>
+    <t>Sử dụng thuộc tính onChange - vừa update value vừa validate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;input ref={nameInputRef} type='text' id='name' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onChange={nameInputHandler}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> onBlur={nameInputBlurHandler} value={enteredName}/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;input ref={nameInputRef} type='text' id='name' onChange={nameInputHandler} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onBlur={nameInputBlurHandler}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value={enteredName}/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Quản lý overall form validation</t>
+  </si>
+  <si>
+    <t>Một form có thể có nhiều input: name, age, email</t>
+  </si>
+  <si>
+    <t>=&gt; quản lý trạng thái validation của toàn form</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>formIsValid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = enteredNameIsValid &amp;&amp; enteredEmailIsValid;</t>
+    </r>
+  </si>
+  <si>
+    <t>const enteredNameIsValid = enteredName.trim() !== '';</t>
+  </si>
+  <si>
+    <t>const enteredEmailIsValid = enteredEmail.trim() !== '';</t>
+  </si>
+  <si>
+    <t>Khi form không hợp lệ, disable một số chức năng, ví dụ:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>disabled={!formIsValid}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Submit&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  event.preventDefault();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setEnteredNameIsValid(false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  setEnteredNameIsValid(true);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nameInputRef.current.value = ''; // =&gt; NOT IDEAL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>formSubmitHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (event) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nameInputRef.current.value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.trim() === '') {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  setEnteredName('');</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  if (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enteredName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.trim() === '') {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enteredName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, setEnteredName] = useState('');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref={nameInputRef}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> type='text' id='name' onChange={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nameInputHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;input type='text' id='name' onChange={</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nameInputHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value={enteredName}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://academind.com/tutorials/reactjs-a-custom-useform-hook</t>
+  </si>
+  <si>
+    <t>FORMIK - working with forms</t>
+  </si>
+  <si>
+    <t>Overall form validation</t>
+  </si>
+  <si>
+    <t>Build a custom input hook</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emailReducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (state, action) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initalEmailState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = { value: '', isValid: null }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  return initalEmailState;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  const [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emailState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatchEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] = useReducer(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emailReducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, initalEmailState);</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  const validateEmailHandler = () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // We don't have to pass the email value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // We can use the prevState in dispatchFn.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatchEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({ type: 'VALIDATE_INPUT' });</t>
+    </r>
+  </si>
+  <si>
+    <t>const redux = require('redux');</t>
+  </si>
+  <si>
+    <t>npm install redux react-redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (action.type === 'INCREMENT') {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return state;</t>
+  </si>
+  <si>
+    <t>const counterSubscriber = () =&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(latestState);</t>
+  </si>
+  <si>
+    <t>console.log(store.getState());</t>
+  </si>
+  <si>
+    <t>//create Reducer function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return { counter: state.counter + 1 };</t>
+  </si>
+  <si>
+    <t>//create Store</t>
+  </si>
+  <si>
+    <t>//subscriber function</t>
+  </si>
+  <si>
+    <t>//subscibe</t>
+  </si>
+  <si>
+    <t>//print the latest state</t>
+  </si>
+  <si>
+    <t>//dispatch action</t>
+  </si>
+  <si>
+    <t>function được dùng để dispatch action</t>
+  </si>
+  <si>
+    <t>Trạng thái khởi tạo của state</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Là một string hoặc một object mô tả hành động cần xử lý</t>
+  </si>
+  <si>
+    <t>//action is an object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counterReducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (state = { counter: 10 }, action) =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const store = redux.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(counterReducer);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  const latestState = store.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>store.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subscribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(counterSubscriber);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>store.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({type: "INCREMENT"});</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>store.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({type: "NO CHANGE"});</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng Redux trong React Components</t>
+  </si>
+  <si>
+    <t>Sử dụng Redux State đúng cách</t>
+  </si>
+  <si>
+    <t>Khi hàm reducer() trả về một state -&gt; nó sẽ overwrite the existing state (Thay vì merge)</t>
+  </si>
+  <si>
+    <t>Chúng ta KHÔNG BAO GIỜ thay đổi trạng thái cũ (prevState) trực tiếp.</t>
+  </si>
+  <si>
+    <t>https://academind.com/tutorials/reference-vs-primitive-values/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VD: if (action.type === "INCREMENT") {   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state.counter++;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> return state; }</t>
+    </r>
+  </si>
+  <si>
+    <t>//wrong approach</t>
+  </si>
+  <si>
+    <t>{createStore, useSelector, useDispatch }</t>
+  </si>
+  <si>
+    <t>npm install @reduxjs/toolkit</t>
+  </si>
+  <si>
+    <t>Cho phép tạo các State Slices.</t>
+  </si>
+  <si>
+    <t>Chú ý: Sử dụng Redux trong Class component khác với Function component.</t>
+  </si>
+  <si>
+    <t>Hỗ trợ merge state --&gt; chỉ cần thay đổi các state mong muốn</t>
+  </si>
+  <si>
+    <t>Cho phép thay đổi previousState --&gt; redux toolkit sẽ tự tạo object state mới internally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    increment(state) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      state.counter++; //redux toolkit would fix this internally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    decrement(state) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      state.counter--;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    increase(state, action) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    toggleCounter(state) {</t>
+  </si>
+  <si>
+    <t>import { createSlice, configureStore } from '@reduxjs/toolkit';</t>
+  </si>
+  <si>
+    <t>Export slice reducers</t>
+  </si>
+  <si>
+    <t>// merge spices reducers into one reducer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const counterSlice = createSlice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const store = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>configureStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <t>Dispatch actions</t>
+  </si>
+  <si>
+    <r>
+      <t>export const counterActions = counterSlice.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Export actions</t>
+  </si>
+  <si>
+    <t>import { counterActions } from '../store/index';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const incrementHandler = () =&gt; {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reducers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      state.showCounter = !state.showCounter;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  reducer: counterSlice.reducer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //reducer: { counter: counterSlice.reducer }</t>
+  </si>
+  <si>
+    <t>//multiple slice reducers</t>
+  </si>
+  <si>
+    <t>//single slice reducer</t>
+  </si>
+  <si>
+    <t>Example: A counter with Redux standalone (JavaScript)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    dispatch(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counterActions.increment()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>//dispatch(counterActions.increment());</t>
+  </si>
+  <si>
+    <t>//dispatch(counterActions.toggleCounter());</t>
+  </si>
+  <si>
+    <t>//dispatch(counterActions.increase(10));</t>
+  </si>
+  <si>
+    <t>//dispatch(counterActions.decrement());</t>
+  </si>
+  <si>
+    <t>// action = { type: SOME_UNIQUE_IDENTIFIER, payload: … }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      state.counter = state.counter + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action.payload;</t>
+    </r>
+  </si>
+  <si>
+    <t>Làm việc với multiple slices</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 'counter',</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initialState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: initialCounterState,</t>
+    </r>
+  </si>
+  <si>
+    <t>export const counterActions = counterSlice.actions;</t>
+  </si>
+  <si>
+    <t>export const authActions = authSlice.actions;</t>
+  </si>
+  <si>
+    <t>Có thể khai báo nhiều state slices khác nhau vào cùng một reducer.</t>
+  </si>
+  <si>
+    <t>Khi lấy state cần trỏ tới reducer cụ thể</t>
+  </si>
+  <si>
+    <r>
+      <t>const isAuth = useSelector(state =&gt; state.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.isAuthenticated);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const counter = useSelector(state =&gt; state.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.counter);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const showCounter = useSelector(state =&gt; state.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.showCounter);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  reducer: { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: counterSlice.reducer, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: authSlice.reducer },</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5954,6 +7285,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5982,7 +7322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6025,6 +7365,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6086,6 +7428,143 @@
         <a:xfrm>
           <a:off x="7463118" y="190500"/>
           <a:ext cx="5742857" cy="2904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>459415</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535F8FE9-7BB8-444B-A1E6-BE00606F656F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261412" y="6096000"/>
+          <a:ext cx="4695238" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C887E4-379D-4704-BF81-278339FB1328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815353" y="7810500"/>
+          <a:ext cx="5255559" cy="3020855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>273345</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64C2E04-9F93-4018-AA3D-4026E232C90D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7261412" y="38906824"/>
+          <a:ext cx="5114286" cy="1828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7194,6 +8673,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>184086</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAD1AA1-210E-19B1-C16A-7C0E370625B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7366000" y="3249083"/>
+          <a:ext cx="3253253" cy="2370667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -7228,143 +8756,6 @@
         <a:xfrm>
           <a:off x="6656294" y="5916706"/>
           <a:ext cx="3285714" cy="3714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>459415</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535F8FE9-7BB8-444B-A1E6-BE00606F656F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7261412" y="6096000"/>
-          <a:ext cx="4695238" cy="2419048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>163355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C887E4-379D-4704-BF81-278339FB1328}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1815353" y="7810500"/>
-          <a:ext cx="5255559" cy="3020855"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>273345</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>114071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64C2E04-9F93-4018-AA3D-4026E232C90D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7261412" y="38906824"/>
-          <a:ext cx="5114286" cy="1828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7641,8 +9032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7679,7 +9070,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K8" s="29">
         <v>44906</v>
@@ -7693,7 +9084,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K9" s="29">
         <v>44914</v>
@@ -7707,7 +9098,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K10" s="29">
         <v>44928</v>
@@ -7721,7 +9112,7 @@
         <v>22</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K11" s="29">
         <v>44938</v>
@@ -7740,10 +9131,10 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>782</v>
+      </c>
+      <c r="C13" t="s">
         <v>783</v>
-      </c>
-      <c r="C13" t="s">
-        <v>784</v>
       </c>
       <c r="K13" s="29">
         <v>44940</v>
@@ -7754,10 +9145,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>786</v>
+      </c>
+      <c r="J14" s="30" t="s">
         <v>787</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>788</v>
       </c>
       <c r="K14" s="29">
         <v>44940</v>
@@ -7768,10 +9159,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K15" s="29">
         <v>44940</v>
@@ -7779,10 +9170,10 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K16" s="29">
         <v>44941</v>
@@ -7790,10 +9181,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K17" s="29">
         <v>44941</v>
@@ -7801,10 +9192,10 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>784</v>
+      </c>
+      <c r="C18" t="s">
         <v>785</v>
-      </c>
-      <c r="C18" t="s">
-        <v>786</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="29">
@@ -7819,7 +9210,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="K19" s="29">
         <v>44943</v>
@@ -7833,7 +9224,7 @@
         <v>25</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="K20" s="29">
         <v>44942</v>
@@ -7847,7 +9238,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="K21" s="29">
         <v>44942</v>
@@ -7861,7 +9252,7 @@
         <v>27</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="K22" s="29">
         <v>44954</v>
@@ -7874,13 +9265,22 @@
       <c r="C23" t="s">
         <v>28</v>
       </c>
+      <c r="J23" s="30" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K23" s="29">
+        <v>44955</v>
+      </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C24" t="s">
-        <v>1095</v>
+        <v>1088</v>
+      </c>
+      <c r="K24" s="29">
+        <v>44962</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
@@ -7891,7 +9291,10 @@
         <v>29</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>1096</v>
+        <v>1089</v>
+      </c>
+      <c r="K25" s="29">
+        <v>44970</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>55</v>
@@ -7927,7 +9330,7 @@
         <v>32</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K28" s="29">
         <v>44930</v>
@@ -7991,7 +9394,7 @@
         <v>45</v>
       </c>
       <c r="M33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -8002,7 +9405,7 @@
         <v>46</v>
       </c>
       <c r="M34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -8059,6 +9462,7 @@
     <hyperlink ref="J19" location="'12.Optimization'!A1" display="'12.Optimization" xr:uid="{427A2453-5E42-49EE-AF1C-B9FE524201AF}"/>
     <hyperlink ref="J25" location="'18.Redux'!A1" display="'18.Redux" xr:uid="{7D803CE0-757E-4F51-96B8-151558B0793A}"/>
     <hyperlink ref="J22" location="'15.customHook'!A1" display="'15.customHook" xr:uid="{EE00C5B5-C176-4FFD-9A2E-2B23F1E63D5F}"/>
+    <hyperlink ref="J23" location="'16.Form'!A1" display="'16.Form" xr:uid="{7C256302-0BB5-49D5-89F0-C244543D5045}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -8076,28 +9480,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8110,199 +9514,199 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="16" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="9" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E32" s="9" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" s="6" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D41" s="6" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C50" s="6"/>
       <c r="D50" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -8312,35 +9716,35 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C56" s="6" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -8350,22 +9754,22 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -8389,7 +9793,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
         <v>532</v>
@@ -8407,22 +9811,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8430,7 +9834,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8538,10 +9942,10 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" s="25" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -8638,7 +10042,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D51" s="6" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="M51" t="s">
         <v>592</v>
@@ -8806,7 +10210,7 @@
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C71" s="14" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="M71" t="s">
         <v>606</v>
@@ -8827,7 +10231,7 @@
     </row>
     <row r="75" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -8843,7 +10247,7 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="M76" t="s">
         <v>609</v>
@@ -8851,7 +10255,7 @@
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="M77" t="s">
         <v>125</v>
@@ -8864,18 +10268,18 @@
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C79" s="16" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="H80" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="M80" t="s">
         <v>610</v>
@@ -8886,7 +10290,7 @@
         <v>595</v>
       </c>
       <c r="H81" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="M81" t="s">
         <v>611</v>
@@ -8894,7 +10298,7 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="H82" t="s">
         <v>75</v>
@@ -8915,42 +10319,42 @@
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D87" s="36" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -8975,25 +10379,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9006,221 +10410,221 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="4" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
@@ -9230,12 +10634,12 @@
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
@@ -9265,22 +10669,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9293,59 +10697,59 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="25" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="J16" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="J17" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="J18" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
@@ -9353,126 +10757,126 @@
         <v>413</v>
       </c>
       <c r="J19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>1157</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="J20" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="J21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="J22" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="J26" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="J27" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="J28" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="J29" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="4" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="J30" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J31" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="J32" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -9485,31 +10889,405 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0ED01D-E201-4C75-9447-6A4B94AC7C1D}">
+  <dimension ref="A1:O63"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="25" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>948</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>825</v>
+      </c>
+      <c r="K36" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E43" s="9" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E46" s="9" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="39" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{F7180401-D313-4796-BD27-EAE1D9D113E7}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{03F9FF70-68C4-40D7-88E7-6C761FF63B25}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B637E407-2E5A-45B1-8F1B-9A200C760104}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1098</v>
+        <v>1091</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1099</v>
+      <c r="C3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9522,141 +11300,557 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="16" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="F13" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="J13" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="F14" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="J14" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>1105</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" s="11" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" s="39" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>1126</v>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="9" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="9" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="9" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="9" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="14" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D68" s="9" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D69" s="9" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D70" s="9" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D71" s="9" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D72" s="9" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D73" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K73" s="31" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="9" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D75" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="9" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="9" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D81" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D82" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D83" s="9" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D84" s="9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D85" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D86" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D88" s="9" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D89" s="9" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D90" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J90" s="31" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D91" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J91" s="31" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D92" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D94" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J94" s="41" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D96" s="9" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="9" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="9" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="9" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="9" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="9" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="9" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="9" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="9" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="9" t="s">
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro" xr:uid="{B37970B0-7191-43CD-B8CA-D1B935F32B4B}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{8B72BA2F-369E-497D-BF6F-D906A6382F5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F33E95-6BA3-4923-8488-FAE427356E73}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -9668,13 +11862,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9682,12 +11876,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9700,93 +11894,93 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="G12" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -9796,122 +11990,122 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="32" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C42" s="25" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G53" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G54" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -9923,7 +12117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A1AAE5-8895-4972-BA44-ABCE854AC42B}">
   <dimension ref="B2:S271"/>
   <sheetViews>
@@ -10019,7 +12213,7 @@
         <v>507</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -10090,12 +12284,12 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -10904,68 +13098,68 @@
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D201" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D202" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D203" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D204" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C205" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D206" s="18" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D208" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="209" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="210" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D210" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="211" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I211" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="J211" t="s">
         <v>679</v>
-      </c>
-      <c r="J211" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="212" spans="3:10" x14ac:dyDescent="0.25">
@@ -10978,26 +13172,26 @@
     </row>
     <row r="213" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J213" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="214" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J214" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="215" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J215" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="216" spans="3:10" x14ac:dyDescent="0.25">
@@ -11010,50 +13204,50 @@
     </row>
     <row r="217" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J217" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="219" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="220" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="221" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="222" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D222" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="223" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K227" t="s">
         <v>412</v>
@@ -11064,12 +13258,12 @@
         <v>204</v>
       </c>
       <c r="K228" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K229" t="s">
         <v>204</v>
@@ -11077,7 +13271,7 @@
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K230" t="s">
         <v>427</v>
@@ -11085,10 +13279,10 @@
     </row>
     <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K231" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.25">
@@ -11096,7 +13290,7 @@
         <v>430</v>
       </c>
       <c r="K232" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.25">
@@ -11104,12 +13298,12 @@
         <v>75</v>
       </c>
       <c r="K233" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D234" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K234" t="s">
         <v>206</v>
@@ -11322,7 +13516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D9D265-7661-41E2-8F58-51E51B362C39}">
   <dimension ref="B1:G39"/>
   <sheetViews>
@@ -11344,7 +13538,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11378,7 +13572,7 @@
         <v>516</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -11386,7 +13580,7 @@
         <v>517</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -11399,7 +13593,7 @@
         <v>519</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -11417,7 +13611,7 @@
         <v>522</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -11425,7 +13619,7 @@
         <v>523</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -11465,42 +13659,42 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -11539,17 +13733,17 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -11884,18 +14078,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC4A4B2-6F7D-44F8-8C98-A7DE08C537DE}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12359,7 +14553,7 @@
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -12639,15 +14833,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E31186-5C3D-4EAA-8345-0EFC8AB7596B}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
         <v>614</v>
@@ -12660,12 +14854,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -12693,117 +14887,117 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>619</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="6"/>
       <c r="D34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="6"/>
       <c r="D35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
@@ -12817,25 +15011,25 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
@@ -12848,57 +15042,57 @@
         <v>204</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -12908,7 +15102,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -12924,184 +15118,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D997D810-4D24-43CC-A4E7-C061D78D7F79}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -13126,22 +15318,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13149,68 +15341,68 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -13218,138 +15410,138 @@
         <v>75</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H23" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" s="9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" s="9" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" s="24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D46" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -13359,32 +15551,32 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -13394,62 +15586,62 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -13473,7 +15665,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1" t="s">
         <v>373</v>
@@ -13489,7 +15681,7 @@
         <v>376</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13512,7 +15704,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13552,17 +15744,17 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -13826,42 +16018,42 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -13876,33 +16068,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68A74C3-90E5-4A87-A4AE-4525744CB844}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -13912,225 +16104,262 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="21" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="F14" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="F16" t="s">
         <v>896</v>
-      </c>
-      <c r="F14" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>875</v>
-      </c>
-      <c r="F15" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>897</v>
-      </c>
-      <c r="F16" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>898</v>
+      <c r="D19" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>899</v>
+      <c r="D20" s="11" t="s">
+        <v>893</v>
       </c>
       <c r="F20" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>874</v>
+      <c r="D21" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>887</v>
-      </c>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="K33" s="31" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="9" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="9" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="9" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>885</v>
+      </c>
+      <c r="K41" s="31" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>884</v>
       </c>
-      <c r="K24" s="31" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>882</v>
-      </c>
-      <c r="K29" s="31" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>891</v>
-      </c>
-      <c r="K40" s="31" t="s">
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="16" t="s">
+        <v>901</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>903</v>
+      </c>
+      <c r="H54" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>905</v>
+      </c>
+      <c r="H55" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="16" t="s">
+      <c r="H56" t="s">
         <v>908</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>910</v>
-      </c>
-      <c r="H48" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>912</v>
-      </c>
-      <c r="H49" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>913</v>
-      </c>
-      <c r="H50" t="s">
-        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -14154,23 +16383,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="37" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -14180,53 +16409,53 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -14236,37 +16465,37 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -14276,57 +16505,57 @@
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
